--- a/src/test/resources/TestDriver/TestEvent/Test.xlsx
+++ b/src/test/resources/TestDriver/TestEvent/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestEvent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E5DBA9-8BBE-4067-951F-B85E05B3D83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F77909-0070-44A1-B68E-BC9B15433A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="47">
   <si>
     <t>Steps</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>INTEREST_ADJUSTMENT</t>
+  </si>
+  <si>
+    <t>TRANS7</t>
+  </si>
+  <si>
+    <t>TRANS8</t>
   </si>
 </sst>
 </file>
@@ -254,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -269,6 +275,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,9 +596,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1253,23 +1263,23 @@
       <c r="A22" s="7">
         <v>20220203</v>
       </c>
-      <c r="B22" s="7">
-        <v>2</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>30</v>
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E22" s="7">
-        <v>20220131</v>
+        <v>20220203</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="8">
-        <v>2000</v>
+      <c r="G22" s="13">
+        <v>56</v>
       </c>
       <c r="H22" s="7">
         <v>202202</v>
@@ -1285,23 +1295,23 @@
       <c r="A23" s="7">
         <v>20220203</v>
       </c>
-      <c r="B23" s="7">
-        <v>2</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>30</v>
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E23" s="7">
-        <v>20220201</v>
+        <v>20220203</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="8">
-        <v>2100</v>
+      <c r="G23" s="13">
+        <v>68</v>
       </c>
       <c r="H23" s="7">
         <v>202202</v>
@@ -1321,19 +1331,19 @@
         <v>2</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="7">
-        <v>20220202</v>
+        <v>20220131</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G24" s="8">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="H24" s="7">
         <v>202202</v>
@@ -1353,19 +1363,19 @@
         <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="7">
-        <v>20220203</v>
+        <v>20220201</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="8">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="H25" s="7">
         <v>202202</v>
@@ -1384,20 +1394,20 @@
       <c r="B26" s="7">
         <v>2</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>25</v>
+      <c r="C26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="E26" s="7">
-        <v>20220203</v>
+        <v>20220202</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="8">
-        <v>58</v>
+        <v>2200</v>
       </c>
       <c r="H26" s="7">
         <v>202202</v>
@@ -1416,38 +1426,105 @@
       <c r="B27" s="7">
         <v>2</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="7">
+        <v>20220203</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="8">
+        <v>2300</v>
+      </c>
+      <c r="H27" s="7">
+        <v>202202</v>
+      </c>
+      <c r="I27" s="7">
+        <v>202202</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>20220203</v>
+      </c>
+      <c r="B28" s="7">
+        <v>2</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="7">
+        <v>20220203</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="8">
+        <v>58</v>
+      </c>
+      <c r="H28" s="7">
+        <v>202202</v>
+      </c>
+      <c r="I28" s="7">
+        <v>202202</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>20220203</v>
+      </c>
+      <c r="B29" s="7">
+        <v>2</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="8">
+      <c r="E29" s="7">
+        <v>20220203</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="8">
         <v>58</v>
       </c>
-      <c r="H27" s="7">
-        <v>202202</v>
-      </c>
-      <c r="I27" s="7">
-        <v>202202</v>
-      </c>
-      <c r="J27" s="7">
-        <v>0</v>
-      </c>
+      <c r="H29" s="7">
+        <v>202202</v>
+      </c>
+      <c r="I29" s="7">
+        <v>202202</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G30" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J27">
-    <sortCondition ref="A3:A27"/>
-    <sortCondition ref="B3:B27"/>
-    <sortCondition ref="C3:C27"/>
-    <sortCondition ref="D3:D27"/>
-    <sortCondition ref="E3:E27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J29">
+    <sortCondition ref="A3:A29"/>
+    <sortCondition ref="B3:B29"/>
+    <sortCondition ref="C3:C29"/>
+    <sortCondition ref="D3:D29"/>
+    <sortCondition ref="E3:E29"/>
   </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/src/test/resources/TestDriver/TestEvent/Test.xlsx
+++ b/src/test/resources/TestDriver/TestEvent/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestEvent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE245E24-6D01-4257-874C-7776E2314728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF2BF42-399B-4D41-8387-89B50CB956F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="O_TransactionActivity" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">O_TransactionActivity!$A$2:$J$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">O_TransactionActivity!$A$2:$J$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="56">
   <si>
     <t>Steps</t>
   </si>
@@ -625,10 +625,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>25</v>
@@ -828,7 +828,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="8">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H7" s="7">
         <v>202201</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>20220131</v>
       </c>
@@ -848,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>25</v>
@@ -860,7 +860,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="8">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>202201</v>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>25</v>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="G9" s="8">
-        <v>50</v>
+        <v>100000</v>
       </c>
       <c r="H9" s="7">
         <v>202201</v>
@@ -911,11 +911,11 @@
       <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>41</v>
+      <c r="C10" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E10" s="7">
         <v>20220131</v>
@@ -924,7 +924,7 @@
         <v>32</v>
       </c>
       <c r="G10" s="8">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="H10" s="7">
         <v>202201</v>
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>30</v>
@@ -956,7 +956,7 @@
         <v>32</v>
       </c>
       <c r="G11" s="8">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="7">
         <v>202201</v>
@@ -976,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>30</v>
@@ -988,7 +988,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="8">
-        <v>100000</v>
+        <v>50</v>
       </c>
       <c r="H12" s="7">
         <v>202201</v>
@@ -1005,13 +1005,13 @@
         <v>20220131</v>
       </c>
       <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E13" s="7">
         <v>20220131</v>
@@ -1020,7 +1020,7 @@
         <v>32</v>
       </c>
       <c r="G13" s="8">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="H13" s="7">
         <v>202201</v>
@@ -1040,7 +1040,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>25</v>
@@ -1052,7 +1052,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="8">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="H14" s="7">
         <v>202201</v>
@@ -1072,7 +1072,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>25</v>
@@ -1084,7 +1084,7 @@
         <v>32</v>
       </c>
       <c r="G15" s="8">
-        <v>200</v>
+        <v>150000</v>
       </c>
       <c r="H15" s="7">
         <v>202201</v>
@@ -1104,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>25</v>
@@ -1116,7 +1116,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="8">
-        <v>150000</v>
+        <v>40</v>
       </c>
       <c r="H16" s="7">
         <v>202201</v>
@@ -1136,7 +1136,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>25</v>
@@ -1148,7 +1148,7 @@
         <v>32</v>
       </c>
       <c r="G17" s="8">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>202201</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>25</v>
@@ -1180,7 +1180,7 @@
         <v>32</v>
       </c>
       <c r="G18" s="8">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H18" s="7">
         <v>202201</v>
@@ -1200,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>25</v>
@@ -1212,7 +1212,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="8">
-        <v>240</v>
+        <v>150000</v>
       </c>
       <c r="H19" s="7">
         <v>202201</v>
@@ -1231,11 +1231,11 @@
       <c r="B20" s="7">
         <v>2</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>44</v>
+      <c r="C20" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E20" s="7">
         <v>20220131</v>
@@ -1244,7 +1244,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="8">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H20" s="7">
         <v>202201</v>
@@ -1263,11 +1263,11 @@
       <c r="B21" s="7">
         <v>2</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>41</v>
+      <c r="C21" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E21" s="7">
         <v>20220131</v>
@@ -1296,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>30</v>
@@ -1308,7 +1308,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="8">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="H22" s="7">
         <v>202201</v>
@@ -1322,31 +1322,31 @@
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
-        <v>20220131</v>
+        <v>20220203</v>
       </c>
       <c r="B23" s="7">
-        <v>2</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E23" s="7">
-        <v>20220131</v>
+        <v>20220203</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G23" s="8">
-        <v>150000</v>
+        <v>20</v>
       </c>
       <c r="H23" s="7">
-        <v>202201</v>
+        <v>202202</v>
       </c>
       <c r="I23" s="7">
-        <v>202201</v>
+        <v>202202</v>
       </c>
       <c r="J23" s="7">
         <v>0</v>
@@ -1354,31 +1354,31 @@
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="B24" s="7">
-        <v>2</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>27</v>
+        <v>20220203</v>
+      </c>
+      <c r="B24" s="12">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E24" s="7">
-        <v>20220131</v>
+        <v>20220203</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G24" s="8">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H24" s="7">
-        <v>202201</v>
+        <v>202202</v>
       </c>
       <c r="I24" s="7">
-        <v>202201</v>
+        <v>202202</v>
       </c>
       <c r="J24" s="7">
         <v>0</v>
@@ -1388,11 +1388,11 @@
       <c r="A25" s="7">
         <v>20220203</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="12">
         <v>1</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>25</v>
@@ -1404,7 +1404,7 @@
         <v>32</v>
       </c>
       <c r="G25" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H25" s="7">
         <v>202202</v>
@@ -1424,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>25</v>
@@ -1436,7 +1436,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H26" s="7">
         <v>202202</v>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>25</v>
@@ -1468,7 +1468,7 @@
         <v>32</v>
       </c>
       <c r="G27" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H27" s="7">
         <v>202202</v>
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>25</v>
@@ -1500,7 +1500,7 @@
         <v>32</v>
       </c>
       <c r="G28" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H28" s="7">
         <v>202202</v>
@@ -1520,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>25</v>
@@ -1532,7 +1532,7 @@
         <v>32</v>
       </c>
       <c r="G29" s="8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H29" s="7">
         <v>202202</v>
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>25</v>
@@ -1564,7 +1564,7 @@
         <v>32</v>
       </c>
       <c r="G30" s="8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H30" s="7">
         <v>202202</v>
@@ -1584,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>25</v>
@@ -1596,7 +1596,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="8">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="H31" s="7">
         <v>202202</v>
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>25</v>
@@ -1628,7 +1628,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="8">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="H32" s="7">
         <v>202202</v>
@@ -1644,23 +1644,23 @@
       <c r="A33" s="7">
         <v>20220203</v>
       </c>
-      <c r="B33" s="12">
-        <v>1</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>46</v>
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E33" s="7">
-        <v>20220203</v>
+        <v>20220131</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G33" s="8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H33" s="7">
         <v>202202</v>
@@ -1676,23 +1676,23 @@
       <c r="A34" s="7">
         <v>20220203</v>
       </c>
-      <c r="B34" s="12">
-        <v>1</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>45</v>
+      <c r="B34" s="7">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E34" s="7">
-        <v>20220203</v>
+        <v>20220131</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G34" s="8">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H34" s="7">
         <v>202202</v>
@@ -1708,23 +1708,23 @@
       <c r="A35" s="7">
         <v>20220203</v>
       </c>
-      <c r="B35" s="12">
-        <v>1</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>44</v>
+      <c r="B35" s="7">
+        <v>1</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E35" s="7">
-        <v>20220203</v>
+        <v>20220201</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G35" s="8">
-        <v>50</v>
+        <v>1100</v>
       </c>
       <c r="H35" s="7">
         <v>202202</v>
@@ -1744,19 +1744,19 @@
         <v>1</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="7">
-        <v>20220131</v>
+        <v>20220201</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G36" s="8">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="H36" s="7">
         <v>202202</v>
@@ -1776,19 +1776,19 @@
         <v>1</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E37" s="7">
-        <v>20220131</v>
+        <v>20220203</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G37" s="8">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="H37" s="7">
         <v>202202</v>
@@ -1804,23 +1804,23 @@
       <c r="A38" s="7">
         <v>20220203</v>
       </c>
-      <c r="B38" s="7">
-        <v>1</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>28</v>
+      <c r="B38" s="12">
+        <v>1</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E38" s="7">
-        <v>20220201</v>
+        <v>20220203</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G38" s="8">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="H38" s="7">
         <v>202202</v>
@@ -1836,23 +1836,23 @@
       <c r="A39" s="7">
         <v>20220203</v>
       </c>
-      <c r="B39" s="7">
-        <v>1</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>29</v>
+      <c r="B39" s="12">
+        <v>1</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E39" s="7">
-        <v>20220201</v>
+        <v>20220203</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G39" s="8">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H39" s="7">
         <v>202202</v>
@@ -1868,14 +1868,14 @@
       <c r="A40" s="7">
         <v>20220203</v>
       </c>
-      <c r="B40" s="7">
-        <v>1</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>29</v>
+      <c r="B40" s="12">
+        <v>1</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E40" s="7">
         <v>20220203</v>
@@ -1904,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>25</v>
@@ -1916,7 +1916,7 @@
         <v>32</v>
       </c>
       <c r="G41" s="8">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H41" s="7">
         <v>202202</v>
@@ -1933,10 +1933,10 @@
         <v>20220203</v>
       </c>
       <c r="B42" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>25</v>
@@ -1948,7 +1948,7 @@
         <v>32</v>
       </c>
       <c r="G42" s="8">
-        <v>1100</v>
+        <v>18</v>
       </c>
       <c r="H42" s="7">
         <v>202202</v>
@@ -1965,10 +1965,10 @@
         <v>20220203</v>
       </c>
       <c r="B43" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>25</v>
@@ -1980,7 +1980,7 @@
         <v>32</v>
       </c>
       <c r="G43" s="8">
-        <v>1300</v>
+        <v>18</v>
       </c>
       <c r="H43" s="7">
         <v>202202</v>
@@ -1997,10 +1997,10 @@
         <v>20220203</v>
       </c>
       <c r="B44" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>25</v>
@@ -2012,7 +2012,7 @@
         <v>32</v>
       </c>
       <c r="G44" s="8">
-        <v>1200</v>
+        <v>8</v>
       </c>
       <c r="H44" s="7">
         <v>202202</v>
@@ -2032,7 +2032,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>25</v>
@@ -2044,7 +2044,7 @@
         <v>32</v>
       </c>
       <c r="G45" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H45" s="7">
         <v>202202</v>
@@ -2064,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>25</v>
@@ -2076,7 +2076,7 @@
         <v>32</v>
       </c>
       <c r="G46" s="8">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H46" s="7">
         <v>202202</v>
@@ -2096,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>25</v>
@@ -2108,7 +2108,7 @@
         <v>32</v>
       </c>
       <c r="G47" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H47" s="7">
         <v>202202</v>
@@ -2128,7 +2128,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>25</v>
@@ -2140,7 +2140,7 @@
         <v>32</v>
       </c>
       <c r="G48" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H48" s="7">
         <v>202202</v>
@@ -2160,7 +2160,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>25</v>
@@ -2172,7 +2172,7 @@
         <v>32</v>
       </c>
       <c r="G49" s="8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H49" s="7">
         <v>202202</v>
@@ -2192,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>25</v>
@@ -2204,7 +2204,7 @@
         <v>32</v>
       </c>
       <c r="G50" s="8">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H50" s="7">
         <v>202202</v>
@@ -2224,7 +2224,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>25</v>
@@ -2236,7 +2236,7 @@
         <v>32</v>
       </c>
       <c r="G51" s="8">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H51" s="7">
         <v>202202</v>
@@ -2252,23 +2252,23 @@
       <c r="A52" s="7">
         <v>20220203</v>
       </c>
-      <c r="B52" s="12">
-        <v>2</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>53</v>
+      <c r="B52" s="7">
+        <v>2</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E52" s="7">
-        <v>20220203</v>
+        <v>20220131</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G52" s="8">
-        <v>12</v>
+        <v>2000</v>
       </c>
       <c r="H52" s="7">
         <v>202202</v>
@@ -2284,23 +2284,23 @@
       <c r="A53" s="7">
         <v>20220203</v>
       </c>
-      <c r="B53" s="12">
-        <v>2</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>46</v>
+      <c r="B53" s="7">
+        <v>2</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E53" s="7">
-        <v>20220203</v>
+        <v>20220201</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G53" s="8">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="H53" s="7">
         <v>202202</v>
@@ -2316,23 +2316,23 @@
       <c r="A54" s="7">
         <v>20220203</v>
       </c>
-      <c r="B54" s="12">
-        <v>2</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>45</v>
+      <c r="B54" s="7">
+        <v>2</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E54" s="7">
-        <v>20220203</v>
+        <v>20220202</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G54" s="8">
-        <v>40</v>
+        <v>2200</v>
       </c>
       <c r="H54" s="7">
         <v>202202</v>
@@ -2348,14 +2348,14 @@
       <c r="A55" s="7">
         <v>20220203</v>
       </c>
-      <c r="B55" s="12">
-        <v>2</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>44</v>
+      <c r="B55" s="7">
+        <v>2</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E55" s="7">
         <v>20220203</v>
@@ -2364,7 +2364,7 @@
         <v>32</v>
       </c>
       <c r="G55" s="8">
-        <v>40</v>
+        <v>2300</v>
       </c>
       <c r="H55" s="7">
         <v>202202</v>
@@ -2380,17 +2380,17 @@
       <c r="A56" s="7">
         <v>20220203</v>
       </c>
-      <c r="B56" s="7">
-        <v>2</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>38</v>
+      <c r="B56" s="12">
+        <v>2</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E56" s="7">
-        <v>20220131</v>
+        <v>20220203</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>32</v>
@@ -2412,17 +2412,17 @@
       <c r="A57" s="7">
         <v>20220203</v>
       </c>
-      <c r="B57" s="7">
-        <v>2</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>28</v>
+      <c r="B57" s="12">
+        <v>2</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E57" s="7">
-        <v>20220201</v>
+        <v>20220203</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>32</v>
@@ -2444,23 +2444,23 @@
       <c r="A58" s="7">
         <v>20220203</v>
       </c>
-      <c r="B58" s="7">
-        <v>2</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>29</v>
+      <c r="B58" s="12">
+        <v>2</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E58" s="7">
-        <v>20220202</v>
+        <v>20220203</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G58" s="8">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H58" s="7">
         <v>202202</v>
@@ -2476,14 +2476,14 @@
       <c r="A59" s="7">
         <v>20220203</v>
       </c>
-      <c r="B59" s="7">
-        <v>2</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>29</v>
+      <c r="B59" s="12">
+        <v>2</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E59" s="7">
         <v>20220203</v>
@@ -2492,7 +2492,7 @@
         <v>32</v>
       </c>
       <c r="G59" s="8">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H59" s="7">
         <v>202202</v>
@@ -2504,141 +2504,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="B60" s="12">
-        <v>2</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E60" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" s="8">
-        <v>2000</v>
-      </c>
-      <c r="H60" s="7">
-        <v>202202</v>
-      </c>
-      <c r="I60" s="7">
-        <v>202202</v>
-      </c>
-      <c r="J60" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="B61" s="12">
-        <v>2</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" s="8">
-        <v>2100</v>
-      </c>
-      <c r="H61" s="7">
-        <v>202202</v>
-      </c>
-      <c r="I61" s="7">
-        <v>202202</v>
-      </c>
-      <c r="J61" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="B62" s="12">
-        <v>2</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E62" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" s="8">
-        <v>2300</v>
-      </c>
-      <c r="H62" s="7">
-        <v>202202</v>
-      </c>
-      <c r="I62" s="7">
-        <v>202202</v>
-      </c>
-      <c r="J62" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="B63" s="12">
-        <v>2</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E63" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" s="8">
-        <v>2200</v>
-      </c>
-      <c r="H63" s="7">
-        <v>202202</v>
-      </c>
-      <c r="I63" s="7">
-        <v>202202</v>
-      </c>
-      <c r="J63" s="7">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J63">
-    <sortCondition ref="A3:A63"/>
-    <sortCondition ref="B3:B63"/>
-    <sortCondition ref="C3:C63"/>
-    <sortCondition ref="D3:D63"/>
-    <sortCondition ref="E3:E63"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J59">
+    <sortCondition ref="A3:A59"/>
+    <sortCondition ref="B3:B59"/>
+    <sortCondition ref="C3:C59"/>
+    <sortCondition ref="D3:D59"/>
+    <sortCondition ref="E3:E59"/>
   </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/src/test/resources/TestDriver/TestEvent/Test.xlsx
+++ b/src/test/resources/TestDriver/TestEvent/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestEvent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF2BF42-399B-4D41-8387-89B50CB956F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15862E53-0B26-41B6-AF54-1BCA8D5C94B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="O_TransactionActivity" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">O_TransactionActivity!$A$2:$J$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">O_TransactionActivity!$A$2:$J$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="56">
   <si>
     <t>Steps</t>
   </si>
@@ -102,9 +102,6 @@
     <t>instrumentId</t>
   </si>
   <si>
-    <t>amount</t>
-  </si>
-  <si>
     <t>originalPeriodId</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>ATT_LS_PR</t>
+  </si>
+  <si>
+    <t>amount ASC</t>
   </si>
 </sst>
 </file>
@@ -248,7 +248,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +259,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -290,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -306,6 +312,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -544,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -555,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -577,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -599,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -625,11 +633,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -644,7 +650,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="5"/>
     </row>
@@ -668,16 +674,16 @@
         <v>19</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -688,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="7">
         <v>20220131</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="8">
         <v>10</v>
@@ -720,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="7">
         <v>20220131</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="8">
         <v>100</v>
@@ -752,16 +758,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="7">
         <v>20220131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="8">
         <v>100000</v>
@@ -784,16 +790,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="7">
         <v>20220131</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="8">
         <v>50</v>
@@ -816,16 +822,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="7">
         <v>20220131</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="8">
         <v>150</v>
@@ -848,16 +854,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="7">
         <v>20220131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="8">
         <v>50</v>
@@ -880,16 +886,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="7">
         <v>20220131</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="8">
         <v>100000</v>
@@ -912,16 +918,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="7">
         <v>20220131</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="8">
         <v>100</v>
@@ -944,16 +950,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="7">
         <v>20220131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="8">
         <v>100000</v>
@@ -976,16 +982,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="7">
         <v>20220131</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="8">
         <v>50</v>
@@ -1008,16 +1014,16 @@
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="7">
         <v>20220131</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="8">
         <v>8</v>
@@ -1040,16 +1046,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="7">
         <v>20220131</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="8">
         <v>200</v>
@@ -1072,16 +1078,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="7">
         <v>20220131</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="8">
         <v>150000</v>
@@ -1104,16 +1110,16 @@
         <v>2</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="7">
         <v>20220131</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="8">
         <v>40</v>
@@ -1136,16 +1142,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="7">
         <v>20220131</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="8">
         <v>240</v>
@@ -1168,16 +1174,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="7">
         <v>20220131</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="8">
         <v>40</v>
@@ -1200,16 +1206,16 @@
         <v>2</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="7">
         <v>20220131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" s="8">
         <v>150000</v>
@@ -1232,16 +1238,16 @@
         <v>2</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="7">
         <v>20220131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="8">
         <v>200</v>
@@ -1264,16 +1270,16 @@
         <v>2</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="7">
         <v>20220131</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="8">
         <v>150000</v>
@@ -1296,16 +1302,16 @@
         <v>2</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="7">
         <v>20220131</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="8">
         <v>40</v>
@@ -1328,16 +1334,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="7">
-        <v>20220203</v>
+        <v>20220201</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" s="8">
         <v>20</v>
@@ -1360,19 +1366,19 @@
         <v>1</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="7">
-        <v>20220203</v>
+        <v>20220201</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H24" s="7">
         <v>202202</v>
@@ -1392,16 +1398,16 @@
         <v>1</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="7">
-        <v>20220203</v>
+        <v>20220201</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" s="8">
         <v>10</v>
@@ -1424,19 +1430,19 @@
         <v>1</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="7">
-        <v>20220203</v>
+        <v>20220201</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H26" s="7">
         <v>202202</v>
@@ -1459,13 +1465,13 @@
         <v>54</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" s="7">
-        <v>20220203</v>
+        <v>20220201</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" s="8">
         <v>4</v>
@@ -1488,19 +1494,19 @@
         <v>1</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="7">
-        <v>20220203</v>
+        <v>20220201</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" s="8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H28" s="7">
         <v>202202</v>
@@ -1523,13 +1529,13 @@
         <v>52</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="7">
-        <v>20220203</v>
+        <v>20220201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" s="8">
         <v>12</v>
@@ -1552,19 +1558,19 @@
         <v>1</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="7">
         <v>20220203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" s="8">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="H30" s="7">
         <v>202202</v>
@@ -1584,16 +1590,16 @@
         <v>1</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="7">
         <v>20220203</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" s="8">
         <v>50</v>
@@ -1612,23 +1618,23 @@
       <c r="A32" s="7">
         <v>20220203</v>
       </c>
-      <c r="B32" s="12">
-        <v>1</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>44</v>
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E32" s="7">
-        <v>20220203</v>
+        <v>20220131</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" s="8">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H32" s="7">
         <v>202202</v>
@@ -1648,16 +1654,16 @@
         <v>1</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33" s="7">
         <v>20220131</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" s="8">
         <v>1000</v>
@@ -1680,19 +1686,19 @@
         <v>1</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34" s="7">
-        <v>20220131</v>
+        <v>20220201</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34" s="8">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="H34" s="7">
         <v>202202</v>
@@ -1715,16 +1721,16 @@
         <v>28</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E35" s="7">
         <v>20220201</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" s="8">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H35" s="7">
         <v>202202</v>
@@ -1744,19 +1750,19 @@
         <v>1</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="E36" s="7">
-        <v>20220201</v>
+        <v>20220203</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36" s="8">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H36" s="7">
         <v>202202</v>
@@ -1772,23 +1778,23 @@
       <c r="A37" s="7">
         <v>20220203</v>
       </c>
-      <c r="B37" s="7">
-        <v>1</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="7">
-        <v>20220203</v>
+      <c r="B37" s="12">
+        <v>1</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="14">
+        <v>20220131</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" s="8">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="H37" s="7">
         <v>202202</v>
@@ -1807,20 +1813,20 @@
       <c r="B38" s="12">
         <v>1</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="7">
-        <v>20220203</v>
+      <c r="D38" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="14">
+        <v>20220201</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" s="8">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="H38" s="7">
         <v>202202</v>
@@ -1839,20 +1845,20 @@
       <c r="B39" s="12">
         <v>1</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="7">
-        <v>20220203</v>
+      <c r="D39" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="14">
+        <v>20220201</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39" s="8">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H39" s="7">
         <v>202202</v>
@@ -1871,17 +1877,17 @@
       <c r="B40" s="12">
         <v>1</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="7">
+      <c r="C40" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="14">
         <v>20220203</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" s="8">
         <v>1300</v>
@@ -1901,22 +1907,22 @@
         <v>20220203</v>
       </c>
       <c r="B41" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E41" s="7">
-        <v>20220203</v>
+        <v>20220202</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41" s="8">
-        <v>1200</v>
+        <v>18</v>
       </c>
       <c r="H41" s="7">
         <v>202202</v>
@@ -1936,19 +1942,19 @@
         <v>2</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42" s="7">
-        <v>20220203</v>
+        <v>20220202</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G42" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H42" s="7">
         <v>202202</v>
@@ -1968,19 +1974,19 @@
         <v>2</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E43" s="7">
-        <v>20220203</v>
+        <v>20220202</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G43" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H43" s="7">
         <v>202202</v>
@@ -2000,19 +2006,19 @@
         <v>2</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E44" s="7">
-        <v>20220203</v>
+        <v>20220202</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G44" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H44" s="7">
         <v>202202</v>
@@ -2032,19 +2038,19 @@
         <v>2</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45" s="7">
-        <v>20220203</v>
+        <v>20220202</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G45" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H45" s="7">
         <v>202202</v>
@@ -2064,19 +2070,19 @@
         <v>2</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E46" s="7">
-        <v>20220203</v>
+        <v>20220202</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G46" s="8">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H46" s="7">
         <v>202202</v>
@@ -2096,19 +2102,19 @@
         <v>2</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E47" s="7">
-        <v>20220203</v>
+        <v>20220202</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" s="8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H47" s="7">
         <v>202202</v>
@@ -2128,19 +2134,19 @@
         <v>2</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E48" s="7">
         <v>20220203</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" s="8">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H48" s="7">
         <v>202202</v>
@@ -2160,19 +2166,19 @@
         <v>2</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E49" s="7">
         <v>20220203</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" s="8">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H49" s="7">
         <v>202202</v>
@@ -2188,23 +2194,23 @@
       <c r="A50" s="7">
         <v>20220203</v>
       </c>
-      <c r="B50" s="12">
-        <v>2</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>45</v>
+      <c r="B50" s="7">
+        <v>2</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E50" s="7">
-        <v>20220203</v>
+        <v>20220131</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" s="8">
-        <v>40</v>
+        <v>2000</v>
       </c>
       <c r="H50" s="7">
         <v>202202</v>
@@ -2220,23 +2226,23 @@
       <c r="A51" s="7">
         <v>20220203</v>
       </c>
-      <c r="B51" s="12">
-        <v>2</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>44</v>
+      <c r="B51" s="7">
+        <v>2</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E51" s="7">
-        <v>20220203</v>
+        <v>20220201</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51" s="8">
-        <v>40</v>
+        <v>2100</v>
       </c>
       <c r="H51" s="7">
         <v>202202</v>
@@ -2256,19 +2262,19 @@
         <v>2</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E52" s="7">
-        <v>20220131</v>
+        <v>20220202</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G52" s="8">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="H52" s="7">
         <v>202202</v>
@@ -2291,16 +2297,16 @@
         <v>28</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E53" s="7">
-        <v>20220201</v>
+        <v>20220203</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G53" s="8">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="H53" s="7">
         <v>202202</v>
@@ -2316,23 +2322,23 @@
       <c r="A54" s="7">
         <v>20220203</v>
       </c>
-      <c r="B54" s="7">
-        <v>2</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="7">
-        <v>20220202</v>
+      <c r="B54" s="12">
+        <v>2</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="14">
+        <v>20220131</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G54" s="8">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="H54" s="7">
         <v>202202</v>
@@ -2348,23 +2354,23 @@
       <c r="A55" s="7">
         <v>20220203</v>
       </c>
-      <c r="B55" s="7">
-        <v>2</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="7">
-        <v>20220203</v>
+      <c r="B55" s="12">
+        <v>2</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="14">
+        <v>20220201</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55" s="8">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="H55" s="7">
         <v>202202</v>
@@ -2383,20 +2389,20 @@
       <c r="B56" s="12">
         <v>2</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="7">
-        <v>20220203</v>
+      <c r="C56" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="14">
+        <v>20220202</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G56" s="8">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="H56" s="7">
         <v>202202</v>
@@ -2415,20 +2421,20 @@
       <c r="B57" s="12">
         <v>2</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="7">
+      <c r="D57" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="14">
         <v>20220203</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G57" s="8">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="H57" s="7">
         <v>202202</v>
@@ -2440,77 +2446,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="B58" s="12">
-        <v>2</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" s="8">
-        <v>2300</v>
-      </c>
-      <c r="H58" s="7">
-        <v>202202</v>
-      </c>
-      <c r="I58" s="7">
-        <v>202202</v>
-      </c>
-      <c r="J58" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="B59" s="12">
-        <v>2</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" s="8">
-        <v>2200</v>
-      </c>
-      <c r="H59" s="7">
-        <v>202202</v>
-      </c>
-      <c r="I59" s="7">
-        <v>202202</v>
-      </c>
-      <c r="J59" s="7">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J59">
-    <sortCondition ref="A3:A59"/>
-    <sortCondition ref="B3:B59"/>
-    <sortCondition ref="C3:C59"/>
-    <sortCondition ref="D3:D59"/>
-    <sortCondition ref="E3:E59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J57">
+    <sortCondition ref="A3:A57"/>
+    <sortCondition ref="B3:B57"/>
+    <sortCondition ref="C3:C57"/>
+    <sortCondition ref="D3:D57"/>
+    <sortCondition ref="E3:E57"/>
+    <sortCondition ref="G3:G57"/>
   </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/src/test/resources/TestDriver/TestEvent/Test.xlsx
+++ b/src/test/resources/TestDriver/TestEvent/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestEvent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15862E53-0B26-41B6-AF54-1BCA8D5C94B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD19ECE-94E1-4657-AE96-73954524E1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="O_TransactionActivity" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">O_TransactionActivity!$A$2:$J$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">O_TransactionActivity!$A$2:$J$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="58">
   <si>
     <t>Steps</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>amount ASC</t>
+  </si>
+  <si>
+    <t>ATT_LT_FIR</t>
+  </si>
+  <si>
+    <t>ATT_LS_FIR</t>
   </si>
 </sst>
 </file>
@@ -296,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -314,6 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,9 +640,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1461,10 +1470,10 @@
       <c r="B27" s="12">
         <v>1</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="7">
@@ -1494,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>24</v>
@@ -1506,7 +1515,7 @@
         <v>31</v>
       </c>
       <c r="G28" s="8">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H28" s="7">
         <v>202202</v>
@@ -1526,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>24</v>
@@ -1557,20 +1566,20 @@
       <c r="B30" s="12">
         <v>1</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="C30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="7">
-        <v>20220203</v>
+        <v>20220201</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G30" s="8">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H30" s="7">
         <v>202202</v>
@@ -1590,19 +1599,19 @@
         <v>1</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="7">
-        <v>20220203</v>
+        <v>20220201</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="8">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H31" s="7">
         <v>202202</v>
@@ -1618,23 +1627,23 @@
       <c r="A32" s="7">
         <v>20220203</v>
       </c>
-      <c r="B32" s="7">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>37</v>
+      <c r="B32" s="12">
+        <v>1</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E32" s="7">
-        <v>20220131</v>
+        <v>20220203</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="8">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="H32" s="7">
         <v>202202</v>
@@ -1650,23 +1659,23 @@
       <c r="A33" s="7">
         <v>20220203</v>
       </c>
-      <c r="B33" s="7">
-        <v>1</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>37</v>
+      <c r="B33" s="12">
+        <v>1</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E33" s="7">
-        <v>20220131</v>
+        <v>20220203</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G33" s="8">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>202202</v>
@@ -1686,19 +1695,19 @@
         <v>1</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="7">
-        <v>20220201</v>
+        <v>20220131</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G34" s="8">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="H34" s="7">
         <v>202202</v>
@@ -1718,19 +1727,19 @@
         <v>1</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E35" s="7">
-        <v>20220201</v>
+        <v>20220131</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G35" s="8">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="H35" s="7">
         <v>202202</v>
@@ -1750,19 +1759,19 @@
         <v>1</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E36" s="7">
-        <v>20220203</v>
+        <v>20220201</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G36" s="8">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="H36" s="7">
         <v>202202</v>
@@ -1778,23 +1787,23 @@
       <c r="A37" s="7">
         <v>20220203</v>
       </c>
-      <c r="B37" s="12">
-        <v>1</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="14">
-        <v>20220131</v>
+      <c r="B37" s="7">
+        <v>1</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="7">
+        <v>20220201</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G37" s="8">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H37" s="7">
         <v>202202</v>
@@ -1810,23 +1819,23 @@
       <c r="A38" s="7">
         <v>20220203</v>
       </c>
-      <c r="B38" s="12">
-        <v>1</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="14">
-        <v>20220201</v>
+      <c r="B38" s="7">
+        <v>1</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="7">
+        <v>20220203</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="8">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="H38" s="7">
         <v>202202</v>
@@ -1846,19 +1855,19 @@
         <v>1</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="14">
-        <v>20220201</v>
+        <v>20220131</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G39" s="8">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="H39" s="7">
         <v>202202</v>
@@ -1878,19 +1887,19 @@
         <v>1</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E40" s="14">
-        <v>20220203</v>
+        <v>20220201</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G40" s="8">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="H40" s="7">
         <v>202202</v>
@@ -1907,22 +1916,22 @@
         <v>20220203</v>
       </c>
       <c r="B41" s="12">
-        <v>2</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="7">
-        <v>20220202</v>
+        <v>1</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="14">
+        <v>20220201</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G41" s="8">
-        <v>18</v>
+        <v>1200</v>
       </c>
       <c r="H41" s="7">
         <v>202202</v>
@@ -1939,22 +1948,22 @@
         <v>20220203</v>
       </c>
       <c r="B42" s="12">
-        <v>2</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="7">
-        <v>20220202</v>
+        <v>1</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="14">
+        <v>20220203</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G42" s="8">
-        <v>8</v>
+        <v>1300</v>
       </c>
       <c r="H42" s="7">
         <v>202202</v>
@@ -1974,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>24</v>
@@ -1986,7 +1995,7 @@
         <v>31</v>
       </c>
       <c r="G43" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H43" s="7">
         <v>202202</v>
@@ -2006,7 +2015,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>24</v>
@@ -2018,7 +2027,7 @@
         <v>31</v>
       </c>
       <c r="G44" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H44" s="7">
         <v>202202</v>
@@ -2038,7 +2047,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>24</v>
@@ -2050,7 +2059,7 @@
         <v>31</v>
       </c>
       <c r="G45" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H45" s="7">
         <v>202202</v>
@@ -2070,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>24</v>
@@ -2082,7 +2091,7 @@
         <v>31</v>
       </c>
       <c r="G46" s="8">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H46" s="7">
         <v>202202</v>
@@ -2101,10 +2110,10 @@
       <c r="B47" s="12">
         <v>2</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="10" t="s">
+      <c r="C47" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E47" s="7">
@@ -2114,7 +2123,7 @@
         <v>31</v>
       </c>
       <c r="G47" s="8">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H47" s="7">
         <v>202202</v>
@@ -2134,19 +2143,19 @@
         <v>2</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="7">
-        <v>20220203</v>
+        <v>20220202</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G48" s="8">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H48" s="7">
         <v>202202</v>
@@ -2166,19 +2175,19 @@
         <v>2</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E49" s="7">
-        <v>20220203</v>
+        <v>20220202</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G49" s="8">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H49" s="7">
         <v>202202</v>
@@ -2194,23 +2203,23 @@
       <c r="A50" s="7">
         <v>20220203</v>
       </c>
-      <c r="B50" s="7">
-        <v>2</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>29</v>
+      <c r="B50" s="12">
+        <v>2</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="E50" s="7">
-        <v>20220131</v>
+        <v>20220202</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G50" s="8">
-        <v>2000</v>
+        <v>12</v>
       </c>
       <c r="H50" s="7">
         <v>202202</v>
@@ -2226,23 +2235,23 @@
       <c r="A51" s="7">
         <v>20220203</v>
       </c>
-      <c r="B51" s="7">
-        <v>2</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>27</v>
+      <c r="B51" s="12">
+        <v>2</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E51" s="7">
-        <v>20220201</v>
+        <v>20220202</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G51" s="8">
-        <v>2100</v>
+        <v>12</v>
       </c>
       <c r="H51" s="7">
         <v>202202</v>
@@ -2258,23 +2267,23 @@
       <c r="A52" s="7">
         <v>20220203</v>
       </c>
-      <c r="B52" s="7">
-        <v>2</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>28</v>
+      <c r="B52" s="12">
+        <v>2</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E52" s="7">
-        <v>20220202</v>
+        <v>20220203</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G52" s="8">
-        <v>2200</v>
+        <v>40</v>
       </c>
       <c r="H52" s="7">
         <v>202202</v>
@@ -2290,14 +2299,14 @@
       <c r="A53" s="7">
         <v>20220203</v>
       </c>
-      <c r="B53" s="7">
-        <v>2</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>28</v>
+      <c r="B53" s="12">
+        <v>2</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E53" s="7">
         <v>20220203</v>
@@ -2306,7 +2315,7 @@
         <v>31</v>
       </c>
       <c r="G53" s="8">
-        <v>2300</v>
+        <v>40</v>
       </c>
       <c r="H53" s="7">
         <v>202202</v>
@@ -2322,16 +2331,16 @@
       <c r="A54" s="7">
         <v>20220203</v>
       </c>
-      <c r="B54" s="12">
-        <v>2</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" s="14">
+      <c r="B54" s="7">
+        <v>2</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="7">
         <v>20220131</v>
       </c>
       <c r="F54" s="7" t="s">
@@ -2354,16 +2363,16 @@
       <c r="A55" s="7">
         <v>20220203</v>
       </c>
-      <c r="B55" s="12">
-        <v>2</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E55" s="14">
+      <c r="B55" s="7">
+        <v>2</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="7">
         <v>20220201</v>
       </c>
       <c r="F55" s="7" t="s">
@@ -2386,16 +2395,16 @@
       <c r="A56" s="7">
         <v>20220203</v>
       </c>
-      <c r="B56" s="12">
-        <v>2</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" s="14">
+      <c r="B56" s="7">
+        <v>2</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="7">
         <v>20220202</v>
       </c>
       <c r="F56" s="7" t="s">
@@ -2418,16 +2427,16 @@
       <c r="A57" s="7">
         <v>20220203</v>
       </c>
-      <c r="B57" s="12">
-        <v>2</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="14">
+      <c r="B57" s="7">
+        <v>2</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="7">
         <v>20220203</v>
       </c>
       <c r="F57" s="7" t="s">
@@ -2446,14 +2455,142 @@
         <v>0</v>
       </c>
     </row>
+    <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>20220203</v>
+      </c>
+      <c r="B58" s="12">
+        <v>2</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="14">
+        <v>20220131</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H58" s="7">
+        <v>202202</v>
+      </c>
+      <c r="I58" s="7">
+        <v>202202</v>
+      </c>
+      <c r="J58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>20220203</v>
+      </c>
+      <c r="B59" s="12">
+        <v>2</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="14">
+        <v>20220201</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="8">
+        <v>2100</v>
+      </c>
+      <c r="H59" s="7">
+        <v>202202</v>
+      </c>
+      <c r="I59" s="7">
+        <v>202202</v>
+      </c>
+      <c r="J59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
+        <v>20220203</v>
+      </c>
+      <c r="B60" s="12">
+        <v>2</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="14">
+        <v>20220202</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="8">
+        <v>2200</v>
+      </c>
+      <c r="H60" s="7">
+        <v>202202</v>
+      </c>
+      <c r="I60" s="7">
+        <v>202202</v>
+      </c>
+      <c r="J60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
+        <v>20220203</v>
+      </c>
+      <c r="B61" s="12">
+        <v>2</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="14">
+        <v>20220203</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="8">
+        <v>2300</v>
+      </c>
+      <c r="H61" s="7">
+        <v>202202</v>
+      </c>
+      <c r="I61" s="7">
+        <v>202202</v>
+      </c>
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J57">
-    <sortCondition ref="A3:A57"/>
-    <sortCondition ref="B3:B57"/>
-    <sortCondition ref="C3:C57"/>
-    <sortCondition ref="D3:D57"/>
-    <sortCondition ref="E3:E57"/>
-    <sortCondition ref="G3:G57"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J61">
+    <sortCondition ref="A3:A61"/>
+    <sortCondition ref="B3:B61"/>
+    <sortCondition ref="C3:C61"/>
+    <sortCondition ref="D3:D61"/>
+    <sortCondition ref="E3:E61"/>
+    <sortCondition ref="G3:G61"/>
   </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/src/test/resources/TestDriver/TestEvent/Test.xlsx
+++ b/src/test/resources/TestDriver/TestEvent/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestEvent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD19ECE-94E1-4657-AE96-73954524E1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55C7E08-B6A0-4264-9194-2E203D893A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="O_TransactionActivity" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">O_TransactionActivity!$A$2:$J$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">O_TransactionActivity!$A$2:$J$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="58">
   <si>
     <t>Steps</t>
   </si>
@@ -302,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -321,6 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,11 +641,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -671,19 +670,19 @@
         <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>20</v>
@@ -702,20 +701,20 @@
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="8">
-        <v>10</v>
+      <c r="E3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H3" s="7">
         <v>202201</v>
@@ -734,20 +733,20 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="8">
-        <v>100</v>
+      <c r="C4" s="8">
+        <v>50</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H4" s="7">
         <v>202201</v>
@@ -766,20 +765,20 @@
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="8">
-        <v>100000</v>
+      <c r="C5" s="8">
+        <v>50</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H5" s="7">
         <v>202201</v>
@@ -798,20 +797,20 @@
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="C6" s="8">
         <v>50</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>202201</v>
@@ -830,20 +829,20 @@
       <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="8">
-        <v>150</v>
+      <c r="C7" s="8">
+        <v>100</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H7" s="7">
         <v>202201</v>
@@ -862,20 +861,20 @@
       <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="8">
-        <v>50</v>
+      <c r="C8" s="8">
+        <v>100</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H8" s="7">
         <v>202201</v>
@@ -894,20 +893,20 @@
       <c r="B9" s="7">
         <v>1</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="8">
-        <v>100000</v>
+      <c r="C9" s="8">
+        <v>150</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H9" s="7">
         <v>202201</v>
@@ -926,20 +925,20 @@
       <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="8">
-        <v>100</v>
+      <c r="C10" s="8">
+        <v>100000</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H10" s="7">
         <v>202201</v>
@@ -958,20 +957,20 @@
       <c r="B11" s="7">
         <v>1</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="C11" s="8">
         <v>100000</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H11" s="7">
         <v>202201</v>
@@ -990,20 +989,20 @@
       <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="8">
+        <v>100000</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="8">
-        <v>50</v>
+      <c r="F12" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H12" s="7">
         <v>202201</v>
@@ -1022,20 +1021,20 @@
       <c r="B13" s="7">
         <v>2</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="8">
-        <v>8</v>
+      <c r="E13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H13" s="7">
         <v>202201</v>
@@ -1054,20 +1053,20 @@
       <c r="B14" s="7">
         <v>2</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="8">
-        <v>200</v>
+      <c r="C14" s="8">
+        <v>40</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H14" s="7">
         <v>202201</v>
@@ -1086,20 +1085,20 @@
       <c r="B15" s="7">
         <v>2</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="8">
-        <v>150000</v>
+      <c r="C15" s="8">
+        <v>40</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H15" s="7">
         <v>202201</v>
@@ -1118,20 +1117,20 @@
       <c r="B16" s="7">
         <v>2</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="C16" s="8">
         <v>40</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H16" s="7">
         <v>202201</v>
@@ -1150,20 +1149,20 @@
       <c r="B17" s="7">
         <v>2</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="8">
-        <v>240</v>
+      <c r="C17" s="8">
+        <v>200</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H17" s="7">
         <v>202201</v>
@@ -1182,20 +1181,20 @@
       <c r="B18" s="7">
         <v>2</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="8">
-        <v>40</v>
+      <c r="C18" s="8">
+        <v>200</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H18" s="7">
         <v>202201</v>
@@ -1214,20 +1213,20 @@
       <c r="B19" s="7">
         <v>2</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="8">
-        <v>150000</v>
+      <c r="C19" s="8">
+        <v>240</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H19" s="7">
         <v>202201</v>
@@ -1246,20 +1245,20 @@
       <c r="B20" s="7">
         <v>2</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="8">
-        <v>200</v>
+      <c r="C20" s="8">
+        <v>150000</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H20" s="7">
         <v>202201</v>
@@ -1278,20 +1277,20 @@
       <c r="B21" s="7">
         <v>2</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="C21" s="8">
         <v>150000</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H21" s="7">
         <v>202201</v>
@@ -1310,20 +1309,20 @@
       <c r="B22" s="7">
         <v>2</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="8">
+        <v>150000</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="8">
-        <v>40</v>
+      <c r="F22" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H22" s="7">
         <v>202201</v>
@@ -1339,23 +1338,23 @@
       <c r="A23" s="7">
         <v>20220203</v>
       </c>
-      <c r="B23" s="7">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="B23" s="12">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="7">
         <v>20220201</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="8">
-        <v>20</v>
+      <c r="G23" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H23" s="7">
         <v>202202</v>
@@ -1374,20 +1373,20 @@
       <c r="B24" s="12">
         <v>1</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="C24" s="8">
+        <v>4</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="7">
         <v>20220201</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="8">
-        <v>10</v>
+      <c r="G24" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H24" s="7">
         <v>202202</v>
@@ -1406,20 +1405,20 @@
       <c r="B25" s="12">
         <v>1</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="C25" s="8">
+        <v>4</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="7">
         <v>20220201</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="8">
-        <v>10</v>
+      <c r="G25" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H25" s="7">
         <v>202202</v>
@@ -1438,20 +1437,20 @@
       <c r="B26" s="12">
         <v>1</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="C26" s="8">
+        <v>10</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="7">
         <v>20220201</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="8">
-        <v>4</v>
+      <c r="G26" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H26" s="7">
         <v>202202</v>
@@ -1470,20 +1469,20 @@
       <c r="B27" s="12">
         <v>1</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="C27" s="8">
+        <v>10</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="7">
         <v>20220201</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="8">
-        <v>4</v>
+      <c r="G27" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H27" s="7">
         <v>202202</v>
@@ -1502,20 +1501,20 @@
       <c r="B28" s="12">
         <v>1</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="7">
+      <c r="C28" s="8">
+        <v>12</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="7">
         <v>20220201</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="8">
-        <v>4</v>
+      <c r="G28" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H28" s="7">
         <v>202202</v>
@@ -1534,20 +1533,20 @@
       <c r="B29" s="12">
         <v>1</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="C29" s="8">
+        <v>12</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="7">
         <v>20220201</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="8">
-        <v>12</v>
+      <c r="G29" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H29" s="7">
         <v>202202</v>
@@ -1566,20 +1565,20 @@
       <c r="B30" s="12">
         <v>1</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="7">
+      <c r="C30" s="8">
+        <v>12</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="7">
         <v>20220201</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="8">
-        <v>12</v>
+      <c r="G30" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H30" s="7">
         <v>202202</v>
@@ -1595,23 +1594,23 @@
       <c r="A31" s="7">
         <v>20220203</v>
       </c>
-      <c r="B31" s="12">
-        <v>1</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
+        <v>20</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="7">
         <v>20220201</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="8">
-        <v>12</v>
+      <c r="G31" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H31" s="7">
         <v>202202</v>
@@ -1624,34 +1623,34 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="B32" s="12">
-        <v>1</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="8">
-        <v>50</v>
-      </c>
-      <c r="H32" s="7">
-        <v>202202</v>
-      </c>
-      <c r="I32" s="7">
-        <v>202202</v>
-      </c>
-      <c r="J32" s="7">
+      <c r="A32">
+        <v>20220203</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32">
+        <v>20220203</v>
+      </c>
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32">
+        <v>202202</v>
+      </c>
+      <c r="I32">
+        <v>202202</v>
+      </c>
+      <c r="J32">
         <v>0</v>
       </c>
     </row>
@@ -1662,20 +1661,20 @@
       <c r="B33" s="12">
         <v>1</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="8">
+      <c r="C33" s="8">
         <v>50</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="7">
+        <v>20220203</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H33" s="7">
         <v>202202</v>
@@ -1691,23 +1690,23 @@
       <c r="A34" s="7">
         <v>20220203</v>
       </c>
-      <c r="B34" s="7">
-        <v>1</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="8">
-        <v>500</v>
+      <c r="B34" s="12">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8">
+        <v>50</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="7">
+        <v>20220203</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H34" s="7">
         <v>202202</v>
@@ -1726,26 +1725,26 @@
       <c r="B35" s="7">
         <v>1</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8">
+        <v>500</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="E35" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="8">
-        <v>1000</v>
-      </c>
-      <c r="H35" s="7">
-        <v>202202</v>
-      </c>
-      <c r="I35" s="7">
-        <v>202202</v>
+      <c r="F35" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35">
+        <v>202201</v>
+      </c>
+      <c r="I35">
+        <v>202201</v>
       </c>
       <c r="J35" s="7">
         <v>0</v>
@@ -1758,26 +1757,26 @@
       <c r="B36" s="7">
         <v>1</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="10" t="s">
+      <c r="C36" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="7">
-        <v>20220201</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="8">
-        <v>1100</v>
-      </c>
-      <c r="H36" s="7">
-        <v>202202</v>
-      </c>
-      <c r="I36" s="7">
-        <v>202202</v>
+      <c r="F36" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36">
+        <v>202201</v>
+      </c>
+      <c r="I36">
+        <v>202201</v>
       </c>
       <c r="J36" s="7">
         <v>0</v>
@@ -1790,20 +1789,20 @@
       <c r="B37" s="7">
         <v>1</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="C37" s="8">
+        <v>1100</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="7">
+      <c r="F37" s="7">
         <v>20220201</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="8">
-        <v>1200</v>
+      <c r="G37" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H37" s="7">
         <v>202202</v>
@@ -1819,23 +1818,23 @@
       <c r="A38" s="7">
         <v>20220203</v>
       </c>
-      <c r="B38" s="7">
-        <v>1</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="8">
-        <v>1300</v>
+      <c r="B38" s="12">
+        <v>1</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1100</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="14">
+        <v>20220201</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H38" s="7">
         <v>202202</v>
@@ -1851,23 +1850,23 @@
       <c r="A39" s="7">
         <v>20220203</v>
       </c>
-      <c r="B39" s="12">
-        <v>1</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="14">
-        <v>20220131</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" s="8">
-        <v>1500</v>
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+      <c r="C39" s="8">
+        <v>1200</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="7">
+        <v>20220201</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H39" s="7">
         <v>202202</v>
@@ -1886,20 +1885,20 @@
       <c r="B40" s="12">
         <v>1</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="14">
+      <c r="C40" s="8">
+        <v>1200</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="14">
         <v>20220201</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" s="8">
-        <v>1100</v>
+      <c r="G40" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H40" s="7">
         <v>202202</v>
@@ -1915,23 +1914,23 @@
       <c r="A41" s="7">
         <v>20220203</v>
       </c>
-      <c r="B41" s="12">
-        <v>1</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="14">
-        <v>20220201</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="8">
-        <v>1200</v>
+      <c r="B41" s="7">
+        <v>1</v>
+      </c>
+      <c r="C41" s="8">
+        <v>1300</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="7">
+        <v>20220203</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H41" s="7">
         <v>202202</v>
@@ -1950,20 +1949,20 @@
       <c r="B42" s="12">
         <v>1</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="8">
+        <v>1300</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="14">
-        <v>20220203</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G42" s="8">
-        <v>1300</v>
+      <c r="E42" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="14">
+        <v>20220203</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H42" s="7">
         <v>202202</v>
@@ -1980,22 +1979,22 @@
         <v>20220203</v>
       </c>
       <c r="B43" s="12">
-        <v>2</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="7">
-        <v>20220202</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" s="8">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1500</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="14">
+        <v>20220131</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H43" s="7">
         <v>202202</v>
@@ -2014,20 +2013,20 @@
       <c r="B44" s="12">
         <v>2</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="7">
+      <c r="C44" s="8">
+        <v>4</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="7">
         <v>20220202</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" s="8">
-        <v>8</v>
+      <c r="G44" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H44" s="7">
         <v>202202</v>
@@ -2046,20 +2045,20 @@
       <c r="B45" s="12">
         <v>2</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="7">
+      <c r="C45" s="8">
+        <v>4</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="7">
         <v>20220202</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" s="8">
-        <v>8</v>
+      <c r="G45" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H45" s="7">
         <v>202202</v>
@@ -2078,20 +2077,20 @@
       <c r="B46" s="12">
         <v>2</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="7">
+      <c r="C46" s="8">
+        <v>4</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="7">
         <v>20220202</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" s="8">
-        <v>4</v>
+      <c r="G46" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H46" s="7">
         <v>202202</v>
@@ -2110,20 +2109,20 @@
       <c r="B47" s="12">
         <v>2</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="7">
+      <c r="C47" s="8">
+        <v>8</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="7">
         <v>20220202</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" s="8">
-        <v>4</v>
+      <c r="G47" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H47" s="7">
         <v>202202</v>
@@ -2142,20 +2141,20 @@
       <c r="B48" s="12">
         <v>2</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="7">
+      <c r="C48" s="8">
+        <v>8</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="7">
         <v>20220202</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G48" s="8">
-        <v>4</v>
+      <c r="G48" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H48" s="7">
         <v>202202</v>
@@ -2174,20 +2173,20 @@
       <c r="B49" s="12">
         <v>2</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="7">
+      <c r="C49" s="8">
+        <v>12</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="7">
         <v>20220202</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" s="8">
-        <v>14</v>
+      <c r="G49" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H49" s="7">
         <v>202202</v>
@@ -2206,20 +2205,20 @@
       <c r="B50" s="12">
         <v>2</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="7">
+      <c r="C50" s="8">
+        <v>12</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="7">
         <v>20220202</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="8">
-        <v>12</v>
+      <c r="G50" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H50" s="7">
         <v>202202</v>
@@ -2238,20 +2237,20 @@
       <c r="B51" s="12">
         <v>2</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="7">
+      <c r="C51" s="8">
+        <v>14</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="7">
         <v>20220202</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="8">
-        <v>12</v>
+      <c r="G51" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H51" s="7">
         <v>202202</v>
@@ -2270,20 +2269,20 @@
       <c r="B52" s="12">
         <v>2</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G52" s="8">
-        <v>40</v>
+      <c r="C52" s="8">
+        <v>18</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="7">
+        <v>20220202</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H52" s="7">
         <v>202202</v>
@@ -2296,34 +2295,34 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="B53" s="12">
-        <v>2</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G53" s="8">
-        <v>40</v>
-      </c>
-      <c r="H53" s="7">
-        <v>202202</v>
-      </c>
-      <c r="I53" s="7">
-        <v>202202</v>
-      </c>
-      <c r="J53" s="7">
+      <c r="A53">
+        <v>20220203</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" s="8">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53">
+        <v>20220203</v>
+      </c>
+      <c r="G53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53">
+        <v>202202</v>
+      </c>
+      <c r="I53">
+        <v>202202</v>
+      </c>
+      <c r="J53">
         <v>0</v>
       </c>
     </row>
@@ -2331,23 +2330,23 @@
       <c r="A54" s="7">
         <v>20220203</v>
       </c>
-      <c r="B54" s="7">
-        <v>2</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54" s="8">
-        <v>2000</v>
+      <c r="B54" s="12">
+        <v>2</v>
+      </c>
+      <c r="C54" s="8">
+        <v>40</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="7">
+        <v>20220203</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H54" s="7">
         <v>202202</v>
@@ -2363,23 +2362,23 @@
       <c r="A55" s="7">
         <v>20220203</v>
       </c>
-      <c r="B55" s="7">
-        <v>2</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E55" s="7">
-        <v>20220201</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="8">
-        <v>2100</v>
+      <c r="B55" s="12">
+        <v>2</v>
+      </c>
+      <c r="C55" s="8">
+        <v>40</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="7">
+        <v>20220203</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H55" s="7">
         <v>202202</v>
@@ -2398,26 +2397,26 @@
       <c r="B56" s="7">
         <v>2</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="10" t="s">
+      <c r="C56" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="7">
-        <v>20220202</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G56" s="8">
-        <v>2200</v>
-      </c>
-      <c r="H56" s="7">
-        <v>202202</v>
-      </c>
-      <c r="I56" s="7">
-        <v>202202</v>
+      <c r="F56" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56">
+        <v>202201</v>
+      </c>
+      <c r="I56">
+        <v>202201</v>
       </c>
       <c r="J56" s="7">
         <v>0</v>
@@ -2427,23 +2426,23 @@
       <c r="A57" s="7">
         <v>20220203</v>
       </c>
-      <c r="B57" s="7">
-        <v>2</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G57" s="8">
-        <v>2300</v>
+      <c r="B57" s="12">
+        <v>2</v>
+      </c>
+      <c r="C57" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="14">
+        <v>20220131</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H57" s="7">
         <v>202202</v>
@@ -2459,23 +2458,23 @@
       <c r="A58" s="7">
         <v>20220203</v>
       </c>
-      <c r="B58" s="12">
-        <v>2</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" s="14">
-        <v>20220131</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G58" s="8">
-        <v>2000</v>
+      <c r="B58" s="7">
+        <v>2</v>
+      </c>
+      <c r="C58" s="8">
+        <v>2100</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="7">
+        <v>20220201</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H58" s="7">
         <v>202202</v>
@@ -2494,20 +2493,20 @@
       <c r="B59" s="12">
         <v>2</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="8">
+        <v>2100</v>
+      </c>
+      <c r="D59" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" s="14">
+      <c r="E59" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="14">
         <v>20220201</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" s="8">
-        <v>2100</v>
+      <c r="G59" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H59" s="7">
         <v>202202</v>
@@ -2523,23 +2522,23 @@
       <c r="A60" s="7">
         <v>20220203</v>
       </c>
-      <c r="B60" s="12">
-        <v>2</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E60" s="14">
+      <c r="B60" s="7">
+        <v>2</v>
+      </c>
+      <c r="C60" s="8">
+        <v>2200</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="7">
         <v>20220202</v>
       </c>
-      <c r="F60" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G60" s="8">
-        <v>2200</v>
+      <c r="G60" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H60" s="7">
         <v>202202</v>
@@ -2558,28 +2557,92 @@
       <c r="B61" s="12">
         <v>2</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="8">
+        <v>2200</v>
+      </c>
+      <c r="D61" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E61" s="14">
-        <v>20220203</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G61" s="8">
+      <c r="E61" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="14">
+        <v>20220202</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="7">
+        <v>202202</v>
+      </c>
+      <c r="I61" s="7">
+        <v>202202</v>
+      </c>
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
+        <v>20220203</v>
+      </c>
+      <c r="B62" s="7">
+        <v>2</v>
+      </c>
+      <c r="C62" s="8">
         <v>2300</v>
       </c>
-      <c r="H61" s="7">
-        <v>202202</v>
-      </c>
-      <c r="I61" s="7">
-        <v>202202</v>
-      </c>
-      <c r="J61" s="7">
+      <c r="D62" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="7">
+        <v>20220203</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="7">
+        <v>202202</v>
+      </c>
+      <c r="I62" s="7">
+        <v>202202</v>
+      </c>
+      <c r="J62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
+        <v>20220203</v>
+      </c>
+      <c r="B63" s="12">
+        <v>2</v>
+      </c>
+      <c r="C63" s="8">
+        <v>2300</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="14">
+        <v>20220203</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="7">
+        <v>202202</v>
+      </c>
+      <c r="I63" s="7">
+        <v>202202</v>
+      </c>
+      <c r="J63" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2590,7 +2653,7 @@
     <sortCondition ref="C3:C61"/>
     <sortCondition ref="D3:D61"/>
     <sortCondition ref="E3:E61"/>
-    <sortCondition ref="G3:G61"/>
+    <sortCondition ref="F3:F61"/>
   </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/src/test/resources/TestDriver/TestEvent/Test.xlsx
+++ b/src/test/resources/TestDriver/TestEvent/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestEvent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55C7E08-B6A0-4264-9194-2E203D893A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3F812A-168D-4248-8F6D-B4FAD495997F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -734,10 +734,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>24</v>
@@ -766,13 +766,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F5" s="7">
         <v>20220131</v>
@@ -798,13 +798,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="8">
-        <v>50</v>
+        <v>100000</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7">
         <v>20220131</v>
@@ -830,10 +830,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="8">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>24</v>
@@ -862,10 +862,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="8">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>29</v>
@@ -926,10 +926,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="8">
-        <v>100000</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>24</v>
@@ -958,10 +958,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="8">
-        <v>100000</v>
+        <v>50</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>24</v>
@@ -990,10 +990,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="8">
-        <v>100000</v>
+        <v>50</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>29</v>
@@ -1022,10 +1022,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="8">
-        <v>8</v>
+        <v>150000</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>24</v>
@@ -1054,10 +1054,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="8">
+        <v>150000</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>24</v>
@@ -1086,13 +1086,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="8">
-        <v>40</v>
+        <v>150000</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F15" s="7">
         <v>20220131</v>
@@ -1118,13 +1118,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="8">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F16" s="7">
         <v>20220131</v>
@@ -1153,10 +1153,10 @@
         <v>200</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F17" s="7">
         <v>20220131</v>
@@ -1182,13 +1182,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="8">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F18" s="7">
         <v>20220131</v>
@@ -1214,10 +1214,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="8">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>24</v>
@@ -1246,10 +1246,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="8">
-        <v>150000</v>
+        <v>40</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>24</v>
@@ -1278,13 +1278,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="8">
-        <v>150000</v>
+        <v>40</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F21" s="7">
         <v>20220131</v>
@@ -1310,13 +1310,13 @@
         <v>2</v>
       </c>
       <c r="C22" s="8">
-        <v>150000</v>
+        <v>8</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F22" s="7">
         <v>20220131</v>
@@ -1342,10 +1342,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>24</v>
@@ -1374,10 +1374,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>24</v>
@@ -1406,25 +1406,25 @@
         <v>1</v>
       </c>
       <c r="C25" s="8">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F25" s="7">
-        <v>20220201</v>
+        <v>20220131</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H25" s="7">
-        <v>202202</v>
+        <v>202201</v>
       </c>
       <c r="I25" s="7">
-        <v>202202</v>
+        <v>202201</v>
       </c>
       <c r="J25" s="7">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="8">
-        <v>10</v>
+        <v>1100</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F26" s="7">
         <v>20220201</v>
@@ -1470,10 +1470,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="8">
-        <v>10</v>
+        <v>1100</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>24</v>
@@ -1598,13 +1598,13 @@
         <v>1</v>
       </c>
       <c r="C31" s="8">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F31" s="7">
         <v>20220201</v>
@@ -1630,16 +1630,16 @@
         <v>1</v>
       </c>
       <c r="C32" s="8">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
         <v>24</v>
       </c>
       <c r="F32">
-        <v>20220203</v>
+        <v>20220201</v>
       </c>
       <c r="G32" t="s">
         <v>31</v>
@@ -1662,13 +1662,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="8">
-        <v>50</v>
+        <v>1300</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F33" s="7">
         <v>20220203</v>
@@ -1694,10 +1694,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="8">
-        <v>50</v>
+        <v>1300</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>24</v>
@@ -1726,13 +1726,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="8">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F35" s="7">
         <v>20220131</v>
@@ -1741,10 +1741,10 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>202201</v>
+        <v>202202</v>
       </c>
       <c r="I35">
-        <v>202201</v>
+        <v>202202</v>
       </c>
       <c r="J35" s="7">
         <v>0</v>
@@ -1758,25 +1758,25 @@
         <v>1</v>
       </c>
       <c r="C36" s="8">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F36" s="7">
-        <v>20220131</v>
+        <v>20220201</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H36">
-        <v>202201</v>
+        <v>202202</v>
       </c>
       <c r="I36">
-        <v>202201</v>
+        <v>202202</v>
       </c>
       <c r="J36" s="7">
         <v>0</v>
@@ -1790,16 +1790,16 @@
         <v>1</v>
       </c>
       <c r="C37" s="8">
-        <v>1100</v>
+        <v>20</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F37" s="7">
-        <v>20220201</v>
+        <v>20220203</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>31</v>
@@ -1822,10 +1822,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="8">
-        <v>1100</v>
+        <v>4</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>24</v>
@@ -1854,13 +1854,13 @@
         <v>1</v>
       </c>
       <c r="C39" s="8">
-        <v>1200</v>
+        <v>4</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F39" s="7">
         <v>20220201</v>
@@ -1886,10 +1886,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="8">
-        <v>1200</v>
+        <v>4</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>24</v>
@@ -1918,13 +1918,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="8">
-        <v>1300</v>
+        <v>50</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F41" s="7">
         <v>20220203</v>
@@ -1950,10 +1950,10 @@
         <v>1</v>
       </c>
       <c r="C42" s="8">
-        <v>1300</v>
+        <v>50</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>24</v>
@@ -1982,13 +1982,13 @@
         <v>1</v>
       </c>
       <c r="C43" s="8">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F43" s="14">
         <v>20220131</v>
@@ -1997,10 +1997,10 @@
         <v>31</v>
       </c>
       <c r="H43" s="7">
-        <v>202202</v>
+        <v>202201</v>
       </c>
       <c r="I43" s="7">
-        <v>202202</v>
+        <v>202201</v>
       </c>
       <c r="J43" s="7">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>2</v>
       </c>
       <c r="C44" s="8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>24</v>
@@ -2046,10 +2046,10 @@
         <v>2</v>
       </c>
       <c r="C45" s="8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>24</v>
@@ -2078,10 +2078,10 @@
         <v>2</v>
       </c>
       <c r="C46" s="8">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>24</v>
@@ -2110,10 +2110,10 @@
         <v>2</v>
       </c>
       <c r="C47" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>24</v>
@@ -2142,16 +2142,16 @@
         <v>2</v>
       </c>
       <c r="C48" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="7">
-        <v>20220202</v>
+        <v>20220203</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>31</v>
@@ -2174,25 +2174,25 @@
         <v>2</v>
       </c>
       <c r="C49" s="8">
-        <v>12</v>
+        <v>2000</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F49" s="7">
-        <v>20220202</v>
+        <v>20220131</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H49" s="7">
-        <v>202202</v>
+        <v>202201</v>
       </c>
       <c r="I49" s="7">
-        <v>202202</v>
+        <v>202201</v>
       </c>
       <c r="J49" s="7">
         <v>0</v>
@@ -2206,16 +2206,16 @@
         <v>2</v>
       </c>
       <c r="C50" s="8">
-        <v>12</v>
+        <v>2000</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="7">
-        <v>20220202</v>
+        <v>20220131</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>31</v>
@@ -2238,16 +2238,16 @@
         <v>2</v>
       </c>
       <c r="C51" s="8">
-        <v>14</v>
+        <v>2100</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F51" s="7">
-        <v>20220202</v>
+        <v>20220201</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>31</v>
@@ -2270,16 +2270,16 @@
         <v>2</v>
       </c>
       <c r="C52" s="8">
-        <v>18</v>
+        <v>2100</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="7">
-        <v>20220202</v>
+        <v>20220201</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>31</v>
@@ -2302,16 +2302,16 @@
         <v>2</v>
       </c>
       <c r="C53" s="8">
-        <v>18</v>
+        <v>2200</v>
       </c>
       <c r="D53" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E53" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F53">
-        <v>20220203</v>
+        <v>20220202</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -2334,16 +2334,16 @@
         <v>2</v>
       </c>
       <c r="C54" s="8">
-        <v>40</v>
+        <v>2200</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="7">
-        <v>20220203</v>
+        <v>20220202</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>31</v>
@@ -2366,13 +2366,13 @@
         <v>2</v>
       </c>
       <c r="C55" s="8">
-        <v>40</v>
+        <v>2300</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F55" s="7">
         <v>20220203</v>
@@ -2398,25 +2398,25 @@
         <v>2</v>
       </c>
       <c r="C56" s="8">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F56" s="7">
-        <v>20220131</v>
+        <v>20220203</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H56">
-        <v>202201</v>
+        <v>202202</v>
       </c>
       <c r="I56">
-        <v>202201</v>
+        <v>202202</v>
       </c>
       <c r="J56" s="7">
         <v>0</v>
@@ -2430,16 +2430,16 @@
         <v>2</v>
       </c>
       <c r="C57" s="8">
-        <v>2000</v>
+        <v>4</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="14">
-        <v>20220131</v>
+        <v>20220202</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>31</v>
@@ -2462,16 +2462,16 @@
         <v>2</v>
       </c>
       <c r="C58" s="8">
-        <v>2100</v>
+        <v>4</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F58" s="7">
-        <v>20220201</v>
+        <v>20220202</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>31</v>
@@ -2494,16 +2494,16 @@
         <v>2</v>
       </c>
       <c r="C59" s="8">
-        <v>2100</v>
+        <v>4</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E59" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F59" s="14">
-        <v>20220201</v>
+        <v>20220202</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>31</v>
@@ -2526,16 +2526,16 @@
         <v>2</v>
       </c>
       <c r="C60" s="8">
-        <v>2200</v>
+        <v>40</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F60" s="7">
-        <v>20220202</v>
+        <v>20220203</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>31</v>
@@ -2558,16 +2558,16 @@
         <v>2</v>
       </c>
       <c r="C61" s="8">
-        <v>2200</v>
+        <v>40</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E61" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F61" s="14">
-        <v>20220202</v>
+        <v>20220203</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>31</v>
@@ -2590,16 +2590,16 @@
         <v>2</v>
       </c>
       <c r="C62" s="8">
-        <v>2300</v>
+        <v>8</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F62" s="7">
-        <v>20220203</v>
+        <v>20220202</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>31</v>
@@ -2622,16 +2622,16 @@
         <v>2</v>
       </c>
       <c r="C63" s="8">
-        <v>2300</v>
+        <v>8</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E63" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="14">
-        <v>20220203</v>
+        <v>20220202</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>31</v>

--- a/src/test/resources/TestDriver/TestEvent/Test.xlsx
+++ b/src/test/resources/TestDriver/TestEvent/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestEvent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3F812A-168D-4248-8F6D-B4FAD495997F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C0E477-AB9E-4A83-93AD-DF01073034CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -317,7 +317,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -643,7 +642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -699,7 +700,7 @@
         <v>20220131</v>
       </c>
       <c r="B3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="8">
         <v>10</v>
@@ -731,7 +732,7 @@
         <v>20220131</v>
       </c>
       <c r="B4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="8">
         <v>100</v>
@@ -763,7 +764,7 @@
         <v>20220131</v>
       </c>
       <c r="B5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="8">
         <v>100</v>
@@ -795,7 +796,7 @@
         <v>20220131</v>
       </c>
       <c r="B6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="8">
         <v>100000</v>
@@ -827,7 +828,7 @@
         <v>20220131</v>
       </c>
       <c r="B7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="8">
         <v>100000</v>
@@ -859,7 +860,7 @@
         <v>20220131</v>
       </c>
       <c r="B8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="8">
         <v>100000</v>
@@ -891,7 +892,7 @@
         <v>20220131</v>
       </c>
       <c r="B9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="8">
         <v>150</v>
@@ -923,7 +924,7 @@
         <v>20220131</v>
       </c>
       <c r="B10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="8">
         <v>50</v>
@@ -955,7 +956,7 @@
         <v>20220131</v>
       </c>
       <c r="B11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="8">
         <v>50</v>
@@ -987,7 +988,7 @@
         <v>20220131</v>
       </c>
       <c r="B12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="8">
         <v>50</v>
@@ -1019,7 +1020,7 @@
         <v>20220131</v>
       </c>
       <c r="B13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="8">
         <v>150000</v>
@@ -1051,7 +1052,7 @@
         <v>20220131</v>
       </c>
       <c r="B14" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="8">
         <v>150000</v>
@@ -1083,7 +1084,7 @@
         <v>20220131</v>
       </c>
       <c r="B15" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="8">
         <v>150000</v>
@@ -1115,7 +1116,7 @@
         <v>20220131</v>
       </c>
       <c r="B16" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="8">
         <v>200</v>
@@ -1147,7 +1148,7 @@
         <v>20220131</v>
       </c>
       <c r="B17" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="8">
         <v>200</v>
@@ -1179,7 +1180,7 @@
         <v>20220131</v>
       </c>
       <c r="B18" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="8">
         <v>240</v>
@@ -1211,7 +1212,7 @@
         <v>20220131</v>
       </c>
       <c r="B19" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="8">
         <v>40</v>
@@ -1243,7 +1244,7 @@
         <v>20220131</v>
       </c>
       <c r="B20" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="8">
         <v>40</v>
@@ -1275,7 +1276,7 @@
         <v>20220131</v>
       </c>
       <c r="B21" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="8">
         <v>40</v>
@@ -1307,7 +1308,7 @@
         <v>20220131</v>
       </c>
       <c r="B22" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="8">
         <v>8</v>
@@ -1338,8 +1339,8 @@
       <c r="A23" s="7">
         <v>20220203</v>
       </c>
-      <c r="B23" s="12">
-        <v>1</v>
+      <c r="B23" s="7">
+        <v>2</v>
       </c>
       <c r="C23" s="8">
         <v>10</v>
@@ -1370,8 +1371,8 @@
       <c r="A24" s="7">
         <v>20220203</v>
       </c>
-      <c r="B24" s="12">
-        <v>1</v>
+      <c r="B24" s="7">
+        <v>2</v>
       </c>
       <c r="C24" s="8">
         <v>10</v>
@@ -1379,7 +1380,7 @@
       <c r="D24" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F24" s="7">
@@ -1402,8 +1403,8 @@
       <c r="A25" s="7">
         <v>20220203</v>
       </c>
-      <c r="B25" s="12">
-        <v>1</v>
+      <c r="B25" s="7">
+        <v>2</v>
       </c>
       <c r="C25" s="8">
         <v>1000</v>
@@ -1434,8 +1435,8 @@
       <c r="A26" s="7">
         <v>20220203</v>
       </c>
-      <c r="B26" s="12">
-        <v>1</v>
+      <c r="B26" s="7">
+        <v>2</v>
       </c>
       <c r="C26" s="8">
         <v>1100</v>
@@ -1466,8 +1467,8 @@
       <c r="A27" s="7">
         <v>20220203</v>
       </c>
-      <c r="B27" s="12">
-        <v>1</v>
+      <c r="B27" s="7">
+        <v>2</v>
       </c>
       <c r="C27" s="8">
         <v>1100</v>
@@ -1498,8 +1499,8 @@
       <c r="A28" s="7">
         <v>20220203</v>
       </c>
-      <c r="B28" s="12">
-        <v>1</v>
+      <c r="B28" s="7">
+        <v>2</v>
       </c>
       <c r="C28" s="8">
         <v>12</v>
@@ -1530,8 +1531,8 @@
       <c r="A29" s="7">
         <v>20220203</v>
       </c>
-      <c r="B29" s="12">
-        <v>1</v>
+      <c r="B29" s="7">
+        <v>2</v>
       </c>
       <c r="C29" s="8">
         <v>12</v>
@@ -1539,7 +1540,7 @@
       <c r="D29" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="7">
@@ -1562,8 +1563,8 @@
       <c r="A30" s="7">
         <v>20220203</v>
       </c>
-      <c r="B30" s="12">
-        <v>1</v>
+      <c r="B30" s="7">
+        <v>2</v>
       </c>
       <c r="C30" s="8">
         <v>12</v>
@@ -1595,7 +1596,7 @@
         <v>20220203</v>
       </c>
       <c r="B31" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="8">
         <v>1200</v>
@@ -1626,8 +1627,8 @@
       <c r="A32">
         <v>20220203</v>
       </c>
-      <c r="B32">
-        <v>1</v>
+      <c r="B32" s="7">
+        <v>2</v>
       </c>
       <c r="C32" s="8">
         <v>1200</v>
@@ -1658,8 +1659,8 @@
       <c r="A33" s="7">
         <v>20220203</v>
       </c>
-      <c r="B33" s="12">
-        <v>1</v>
+      <c r="B33" s="7">
+        <v>2</v>
       </c>
       <c r="C33" s="8">
         <v>1300</v>
@@ -1690,8 +1691,8 @@
       <c r="A34" s="7">
         <v>20220203</v>
       </c>
-      <c r="B34" s="12">
-        <v>1</v>
+      <c r="B34" s="7">
+        <v>2</v>
       </c>
       <c r="C34" s="8">
         <v>1300</v>
@@ -1723,7 +1724,7 @@
         <v>20220203</v>
       </c>
       <c r="B35" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="8">
         <v>1500</v>
@@ -1755,7 +1756,7 @@
         <v>20220203</v>
       </c>
       <c r="B36" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="8">
         <v>20</v>
@@ -1787,7 +1788,7 @@
         <v>20220203</v>
       </c>
       <c r="B37" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="8">
         <v>20</v>
@@ -1818,19 +1819,19 @@
       <c r="A38" s="7">
         <v>20220203</v>
       </c>
-      <c r="B38" s="12">
-        <v>1</v>
+      <c r="B38" s="7">
+        <v>2</v>
       </c>
       <c r="C38" s="8">
         <v>4</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="14">
+      <c r="E38" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="13">
         <v>20220201</v>
       </c>
       <c r="G38" s="7" t="s">
@@ -1851,7 +1852,7 @@
         <v>20220203</v>
       </c>
       <c r="B39" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="8">
         <v>4</v>
@@ -1882,19 +1883,19 @@
       <c r="A40" s="7">
         <v>20220203</v>
       </c>
-      <c r="B40" s="12">
-        <v>1</v>
+      <c r="B40" s="7">
+        <v>2</v>
       </c>
       <c r="C40" s="8">
         <v>4</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="14">
+      <c r="E40" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="13">
         <v>20220201</v>
       </c>
       <c r="G40" s="7" t="s">
@@ -1915,7 +1916,7 @@
         <v>20220203</v>
       </c>
       <c r="B41" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="8">
         <v>50</v>
@@ -1946,19 +1947,19 @@
       <c r="A42" s="7">
         <v>20220203</v>
       </c>
-      <c r="B42" s="12">
-        <v>1</v>
+      <c r="B42" s="7">
+        <v>2</v>
       </c>
       <c r="C42" s="8">
         <v>50</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="14">
+      <c r="E42" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="13">
         <v>20220203</v>
       </c>
       <c r="G42" s="7" t="s">
@@ -1978,19 +1979,19 @@
       <c r="A43" s="7">
         <v>20220203</v>
       </c>
-      <c r="B43" s="12">
-        <v>1</v>
+      <c r="B43" s="7">
+        <v>2</v>
       </c>
       <c r="C43" s="8">
         <v>500</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="13">
         <v>20220131</v>
       </c>
       <c r="G43" s="7" t="s">
@@ -2010,8 +2011,8 @@
       <c r="A44" s="7">
         <v>20220203</v>
       </c>
-      <c r="B44" s="12">
-        <v>2</v>
+      <c r="B44" s="7">
+        <v>3</v>
       </c>
       <c r="C44" s="8">
         <v>12</v>
@@ -2042,8 +2043,8 @@
       <c r="A45" s="7">
         <v>20220203</v>
       </c>
-      <c r="B45" s="12">
-        <v>2</v>
+      <c r="B45" s="7">
+        <v>3</v>
       </c>
       <c r="C45" s="8">
         <v>12</v>
@@ -2051,7 +2052,7 @@
       <c r="D45" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="7">
@@ -2074,8 +2075,8 @@
       <c r="A46" s="7">
         <v>20220203</v>
       </c>
-      <c r="B46" s="12">
-        <v>2</v>
+      <c r="B46" s="7">
+        <v>3</v>
       </c>
       <c r="C46" s="8">
         <v>14</v>
@@ -2106,8 +2107,8 @@
       <c r="A47" s="7">
         <v>20220203</v>
       </c>
-      <c r="B47" s="12">
-        <v>2</v>
+      <c r="B47" s="7">
+        <v>3</v>
       </c>
       <c r="C47" s="8">
         <v>18</v>
@@ -2138,8 +2139,8 @@
       <c r="A48" s="7">
         <v>20220203</v>
       </c>
-      <c r="B48" s="12">
-        <v>2</v>
+      <c r="B48" s="7">
+        <v>3</v>
       </c>
       <c r="C48" s="8">
         <v>18</v>
@@ -2170,8 +2171,8 @@
       <c r="A49" s="7">
         <v>20220203</v>
       </c>
-      <c r="B49" s="12">
-        <v>2</v>
+      <c r="B49" s="7">
+        <v>3</v>
       </c>
       <c r="C49" s="8">
         <v>2000</v>
@@ -2179,7 +2180,7 @@
       <c r="D49" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="13" t="s">
         <v>29</v>
       </c>
       <c r="F49" s="7">
@@ -2202,8 +2203,8 @@
       <c r="A50" s="7">
         <v>20220203</v>
       </c>
-      <c r="B50" s="12">
-        <v>2</v>
+      <c r="B50" s="7">
+        <v>3</v>
       </c>
       <c r="C50" s="8">
         <v>2000</v>
@@ -2234,8 +2235,8 @@
       <c r="A51" s="7">
         <v>20220203</v>
       </c>
-      <c r="B51" s="12">
-        <v>2</v>
+      <c r="B51" s="7">
+        <v>3</v>
       </c>
       <c r="C51" s="8">
         <v>2100</v>
@@ -2266,8 +2267,8 @@
       <c r="A52" s="7">
         <v>20220203</v>
       </c>
-      <c r="B52" s="12">
-        <v>2</v>
+      <c r="B52" s="7">
+        <v>3</v>
       </c>
       <c r="C52" s="8">
         <v>2100</v>
@@ -2298,8 +2299,8 @@
       <c r="A53">
         <v>20220203</v>
       </c>
-      <c r="B53">
-        <v>2</v>
+      <c r="B53" s="7">
+        <v>3</v>
       </c>
       <c r="C53" s="8">
         <v>2200</v>
@@ -2330,8 +2331,8 @@
       <c r="A54" s="7">
         <v>20220203</v>
       </c>
-      <c r="B54" s="12">
-        <v>2</v>
+      <c r="B54" s="7">
+        <v>3</v>
       </c>
       <c r="C54" s="8">
         <v>2200</v>
@@ -2362,8 +2363,8 @@
       <c r="A55" s="7">
         <v>20220203</v>
       </c>
-      <c r="B55" s="12">
-        <v>2</v>
+      <c r="B55" s="7">
+        <v>3</v>
       </c>
       <c r="C55" s="8">
         <v>2300</v>
@@ -2395,7 +2396,7 @@
         <v>20220203</v>
       </c>
       <c r="B56" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" s="8">
         <v>2300</v>
@@ -2426,19 +2427,19 @@
       <c r="A57" s="7">
         <v>20220203</v>
       </c>
-      <c r="B57" s="12">
-        <v>2</v>
+      <c r="B57" s="7">
+        <v>3</v>
       </c>
       <c r="C57" s="8">
         <v>4</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E57" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F57" s="14">
+      <c r="E57" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="13">
         <v>20220202</v>
       </c>
       <c r="G57" s="7" t="s">
@@ -2459,7 +2460,7 @@
         <v>20220203</v>
       </c>
       <c r="B58" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" s="8">
         <v>4</v>
@@ -2490,19 +2491,19 @@
       <c r="A59" s="7">
         <v>20220203</v>
       </c>
-      <c r="B59" s="12">
-        <v>2</v>
+      <c r="B59" s="7">
+        <v>3</v>
       </c>
       <c r="C59" s="8">
         <v>4</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E59" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="14">
+      <c r="E59" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="13">
         <v>20220202</v>
       </c>
       <c r="G59" s="7" t="s">
@@ -2523,12 +2524,12 @@
         <v>20220203</v>
       </c>
       <c r="B60" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60" s="8">
         <v>40</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E60" s="10" t="s">
@@ -2554,19 +2555,19 @@
       <c r="A61" s="7">
         <v>20220203</v>
       </c>
-      <c r="B61" s="12">
-        <v>2</v>
+      <c r="B61" s="7">
+        <v>3</v>
       </c>
       <c r="C61" s="8">
         <v>40</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E61" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F61" s="14">
+      <c r="E61" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="13">
         <v>20220203</v>
       </c>
       <c r="G61" s="7" t="s">
@@ -2587,12 +2588,12 @@
         <v>20220203</v>
       </c>
       <c r="B62" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" s="8">
         <v>8</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E62" s="10" t="s">
@@ -2618,19 +2619,19 @@
       <c r="A63" s="7">
         <v>20220203</v>
       </c>
-      <c r="B63" s="12">
-        <v>2</v>
+      <c r="B63" s="7">
+        <v>3</v>
       </c>
       <c r="C63" s="8">
         <v>8</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E63" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F63" s="14">
+      <c r="E63" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="13">
         <v>20220202</v>
       </c>
       <c r="G63" s="7" t="s">

--- a/src/test/resources/TestDriver/TestEvent/Test.xlsx
+++ b/src/test/resources/TestDriver/TestEvent/Test.xlsx
@@ -1,46 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestEvent\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C0E477-AB9E-4A83-93AD-DF01073034CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
-    <sheet name="O_TransactionActivity" sheetId="2" r:id="rId2"/>
+    <sheet name="Test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="O_TransactionActivity" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">O_TransactionActivity!$A$2:$J$63</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Steps</t>
   </si>
@@ -57,15 +37,24 @@
     <t>FILE_UPLOAD</t>
   </si>
   <si>
+    <t>TestEvent/ReferenceData/RefData_SBO_EVENTS.xlsx</t>
+  </si>
+  <si>
     <t>EVENT_CONFIGURATION</t>
   </si>
   <si>
     <t>CONFIGURATION</t>
   </si>
   <si>
+    <t>TestEvent/EventConfigurations.json</t>
+  </si>
+  <si>
     <t>MODEL_UPLOAD</t>
   </si>
   <si>
+    <t>TestEvent/Model/EVENT_TEST.xlsx</t>
+  </si>
+  <si>
     <t>MODEL_CONFIGURATION</t>
   </si>
   <si>
@@ -75,28 +64,40 @@
     <t>ACTIVITY_UPLOAD</t>
   </si>
   <si>
+    <t>TestEvent/ActivityData/ActivityData_JAN1.xlsx</t>
+  </si>
+  <si>
     <t>MODEL_EXECUTION</t>
   </si>
   <si>
     <t>EXECUTION</t>
   </si>
   <si>
+    <t>TestEvent/ActivityData/ActivityData_FEB3.xlsx</t>
+  </si>
+  <si>
     <t>TransactionActivity</t>
   </si>
   <si>
-    <t>postingDate ASC</t>
-  </si>
-  <si>
-    <t>attributeId ASC</t>
-  </si>
-  <si>
-    <t>transactionName ASC</t>
-  </si>
-  <si>
-    <t>source ASC</t>
-  </si>
-  <si>
-    <t>effectiveDate ASC</t>
+    <t xml:space="preserve">{"instrumentId": "LOAN1"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postingDate ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributeId ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amount ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transactionName ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effectiveDate ASC</t>
   </si>
   <si>
     <t>instrumentId</t>
@@ -111,147 +112,119 @@
     <t>isReplayable</t>
   </si>
   <si>
+    <t>ATT_IR_CUR</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>LOAN1</t>
+  </si>
+  <si>
+    <t>ATT_IRC_CUR</t>
+  </si>
+  <si>
     <t>PURCHASE_INTEREST</t>
   </si>
   <si>
-    <t>MODEL</t>
+    <t>ETL</t>
+  </si>
+  <si>
+    <t>ATT_LA_CUR</t>
+  </si>
+  <si>
+    <t>BAL_EB_UPB</t>
   </si>
   <si>
     <t>PURCHASE_UPB</t>
   </si>
   <si>
+    <t>BAL_EB_AIR</t>
+  </si>
+  <si>
+    <t>BAL_ACT_SIA</t>
+  </si>
+  <si>
+    <t>BAL_EB_SIA</t>
+  </si>
+  <si>
     <t>SERVICING_INTEREST_ACCRUAL</t>
   </si>
   <si>
+    <t>ATT_IR_FIR</t>
+  </si>
+  <si>
+    <t>ATT_IR_PR</t>
+  </si>
+  <si>
+    <t>INTEREST_ADJUSTMENT</t>
+  </si>
+  <si>
     <t>PAYMENT_INTEREST</t>
   </si>
   <si>
+    <t>TRANX_AM_PINT</t>
+  </si>
+  <si>
+    <t>ATT_LT_CUR</t>
+  </si>
+  <si>
+    <t>ATT_LT_FIR</t>
+  </si>
+  <si>
+    <t>ATT_LT_PR</t>
+  </si>
+  <si>
     <t>PAYMENT_UPB</t>
   </si>
   <si>
-    <t>ETL</t>
-  </si>
-  <si>
-    <t>{"instrumentId": "LOAN1"}</t>
-  </si>
-  <si>
-    <t>LOAN1</t>
-  </si>
-  <si>
-    <t>TestEvent/ReferenceData/RefData_SBO_EVENTS.xlsx</t>
-  </si>
-  <si>
-    <t>TestEvent/EventConfigurations.json</t>
-  </si>
-  <si>
-    <t>TestEvent/ActivityData/ActivityData_JAN1.xlsx</t>
-  </si>
-  <si>
-    <t>TestEvent/ActivityData/ActivityData_FEB3.xlsx</t>
-  </si>
-  <si>
-    <t>TestEvent/Model/EVENT_TEST.xlsx</t>
-  </si>
-  <si>
-    <t>INTEREST_ADJUSTMENT</t>
-  </si>
-  <si>
-    <t>ATT_LA_CUR</t>
-  </si>
-  <si>
-    <t>ATT_IRC_CUR</t>
-  </si>
-  <si>
-    <t>BAL_EB_UPB</t>
-  </si>
-  <si>
-    <t>BAL_EB_AIR</t>
-  </si>
-  <si>
-    <t>ATT_IR_CUR</t>
-  </si>
-  <si>
-    <t>BAL_EB_SIA</t>
+    <t>TRANX_AM_PUPB</t>
+  </si>
+  <si>
+    <t>TRANX_AM_IA</t>
+  </si>
+  <si>
+    <t>ATT_LS_CUR</t>
+  </si>
+  <si>
+    <t>ATT_LS_FIR</t>
+  </si>
+  <si>
+    <t>ATT_LS_PR</t>
   </si>
   <si>
     <t>BAL_BB_SIA</t>
-  </si>
-  <si>
-    <t>BAL_ACT_SIA</t>
-  </si>
-  <si>
-    <t>TRANX_AM_IA</t>
-  </si>
-  <si>
-    <t>TRANX_AM_PINT</t>
-  </si>
-  <si>
-    <t>TRANX_AM_PUPB</t>
-  </si>
-  <si>
-    <t>ATT_IR_PR</t>
-  </si>
-  <si>
-    <t>ATT_IR_FIR</t>
-  </si>
-  <si>
-    <t>ATT_LT_CUR</t>
-  </si>
-  <si>
-    <t>ATT_LT_PR</t>
-  </si>
-  <si>
-    <t>ATT_LS_CUR</t>
-  </si>
-  <si>
-    <t>ATT_LS_PR</t>
-  </si>
-  <si>
-    <t>amount ASC</t>
-  </si>
-  <si>
-    <t>ATT_LT_FIR</t>
-  </si>
-  <si>
-    <t>ATT_LS_FIR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i/>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <color rgb="FFC77DBB"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -264,23 +237,22 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="22"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -295,107 +267,37 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="14">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf fontId="3" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="165" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D9D9"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFC77DBB"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -407,8 +309,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
@@ -460,7 +645,7 @@
         <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -511,25 +696,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="1" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" style="1" width="24.7109375"/>
+    <col customWidth="1" min="2" max="2" style="1" width="20.140625"/>
+    <col customWidth="1" min="3" max="3" style="1" width="42.7109375"/>
+    <col customWidth="1" min="4" max="4" style="1" width="31.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -548,89 +733,90 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3">
         <v>44592</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3">
         <v>44595</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -639,63 +825,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A27" zoomScale="120" workbookViewId="0">
+      <selection activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="21.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="21.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="23.140625" style="1" customWidth="1"/>
+    <col customWidth="1" min="1" max="2" style="1" width="21.7109375"/>
+    <col customWidth="1" min="3" max="3" style="1" width="35.140625"/>
+    <col customWidth="1" min="4" max="7" style="1" width="21.7109375"/>
+    <col customWidth="1" min="8" max="9" style="1" width="23.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.25">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="7">
         <v>20220131</v>
       </c>
@@ -706,16 +891,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F3" s="7">
         <v>20220131</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" s="7">
         <v>202201</v>
@@ -727,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" s="7">
         <v>20220131</v>
       </c>
@@ -738,16 +923,16 @@
         <v>100</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F4" s="7">
         <v>20220131</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="7">
         <v>202201</v>
@@ -759,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" s="7">
         <v>20220131</v>
       </c>
@@ -770,16 +955,16 @@
         <v>100</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F5" s="7">
         <v>20220131</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="7">
         <v>202201</v>
@@ -791,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" s="7">
         <v>20220131</v>
       </c>
@@ -801,17 +986,17 @@
       <c r="C6" s="8">
         <v>100000</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>24</v>
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F6" s="7">
         <v>20220131</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>202201</v>
@@ -823,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" s="7">
         <v>20220131</v>
       </c>
@@ -834,16 +1019,16 @@
         <v>100000</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F7" s="7">
         <v>20220131</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>202201</v>
@@ -855,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="7">
         <v>20220131</v>
       </c>
@@ -865,17 +1050,17 @@
       <c r="C8" s="8">
         <v>100000</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>29</v>
+      <c r="D8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F8" s="7">
         <v>20220131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
         <v>202201</v>
@@ -887,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="7">
         <v>20220131</v>
       </c>
@@ -898,16 +1083,16 @@
         <v>150</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F9" s="7">
         <v>20220131</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" s="7">
         <v>202201</v>
@@ -919,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="7">
         <v>20220131</v>
       </c>
@@ -930,16 +1115,16 @@
         <v>50</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F10" s="7">
         <v>20220131</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" s="7">
         <v>202201</v>
@@ -951,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="7">
         <v>20220131</v>
       </c>
@@ -962,16 +1147,16 @@
         <v>50</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>24</v>
+        <v>41</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F11" s="7">
         <v>20220131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" s="7">
         <v>202201</v>
@@ -983,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="7">
         <v>20220131</v>
       </c>
@@ -993,17 +1178,17 @@
       <c r="C12" s="8">
         <v>50</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>29</v>
+      <c r="D12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F12" s="7">
         <v>20220131</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12" s="7">
         <v>202201</v>
@@ -1015,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="7">
         <v>20220131</v>
       </c>
@@ -1026,16 +1211,16 @@
         <v>150000</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F13" s="7">
         <v>20220131</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7">
         <v>202201</v>
@@ -1047,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="7">
         <v>20220131</v>
       </c>
@@ -1058,16 +1243,16 @@
         <v>150000</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F14" s="7">
         <v>20220131</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14" s="7">
         <v>202201</v>
@@ -1079,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="7">
         <v>20220131</v>
       </c>
@@ -1090,16 +1275,16 @@
         <v>150000</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F15" s="7">
         <v>20220131</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15" s="7">
         <v>202201</v>
@@ -1111,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="7">
         <v>20220131</v>
       </c>
@@ -1121,17 +1306,17 @@
       <c r="C16" s="8">
         <v>200</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>24</v>
+      <c r="D16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F16" s="7">
         <v>20220131</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16" s="7">
         <v>202201</v>
@@ -1143,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="7">
         <v>20220131</v>
       </c>
@@ -1154,16 +1339,16 @@
         <v>200</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F17" s="7">
         <v>20220131</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17" s="7">
         <v>202201</v>
@@ -1175,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="7">
         <v>20220131</v>
       </c>
@@ -1185,17 +1370,17 @@
       <c r="C18" s="8">
         <v>240</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>24</v>
+      <c r="D18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F18" s="7">
         <v>20220131</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>202201</v>
@@ -1207,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="7">
         <v>20220131</v>
       </c>
@@ -1218,16 +1403,16 @@
         <v>40</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F19" s="7">
         <v>20220131</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H19" s="7">
         <v>202201</v>
@@ -1239,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="7">
         <v>20220131</v>
       </c>
@@ -1250,16 +1435,16 @@
         <v>40</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>24</v>
+        <v>41</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F20" s="7">
         <v>20220131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20" s="7">
         <v>202201</v>
@@ -1271,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="7">
         <v>20220131</v>
       </c>
@@ -1282,16 +1467,16 @@
         <v>40</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F21" s="7">
         <v>20220131</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21" s="7">
         <v>202201</v>
@@ -1303,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="7">
         <v>20220131</v>
       </c>
@@ -1313,17 +1498,17 @@
       <c r="C22" s="8">
         <v>8</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>24</v>
+      <c r="D22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F22" s="7">
         <v>20220131</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H22" s="7">
         <v>202201</v>
@@ -1335,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="7">
         <v>20220203</v>
       </c>
@@ -1345,17 +1530,17 @@
       <c r="C23" s="8">
         <v>10</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>24</v>
+      <c r="D23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F23" s="7">
         <v>20220201</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23" s="7">
         <v>202202</v>
@@ -1367,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="7">
         <v>20220203</v>
       </c>
@@ -1377,17 +1562,17 @@
       <c r="C24" s="8">
         <v>10</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>24</v>
+      <c r="D24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F24" s="7">
         <v>20220201</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24" s="7">
         <v>202202</v>
@@ -1399,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="7">
         <v>20220203</v>
       </c>
@@ -1409,29 +1594,29 @@
       <c r="C25" s="8">
         <v>1000</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>29</v>
+      <c r="D25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F25" s="7">
         <v>20220131</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25" s="7">
-        <v>202201</v>
+        <v>202202</v>
       </c>
       <c r="I25" s="7">
-        <v>202201</v>
+        <v>202202</v>
       </c>
       <c r="J25" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="7">
         <v>20220203</v>
       </c>
@@ -1441,17 +1626,17 @@
       <c r="C26" s="8">
         <v>1100</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>29</v>
+      <c r="D26" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F26" s="7">
         <v>20220201</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H26" s="7">
         <v>202202</v>
@@ -1463,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="7">
         <v>20220203</v>
       </c>
@@ -1473,17 +1658,17 @@
       <c r="C27" s="8">
         <v>1100</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>24</v>
+      <c r="E27" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F27" s="7">
         <v>20220201</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H27" s="7">
         <v>202202</v>
@@ -1495,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="7">
         <v>20220203</v>
       </c>
@@ -1505,17 +1690,17 @@
       <c r="C28" s="8">
         <v>12</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>24</v>
+      <c r="D28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F28" s="7">
         <v>20220201</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H28" s="7">
         <v>202202</v>
@@ -1527,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="7">
         <v>20220203</v>
       </c>
@@ -1537,17 +1722,17 @@
       <c r="C29" s="8">
         <v>12</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>24</v>
+      <c r="D29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F29" s="7">
         <v>20220201</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H29" s="7">
         <v>202202</v>
@@ -1559,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="7">
         <v>20220203</v>
       </c>
@@ -1569,17 +1754,17 @@
       <c r="C30" s="8">
         <v>12</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>24</v>
+      <c r="D30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F30" s="7">
         <v>20220201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H30" s="7">
         <v>202202</v>
@@ -1591,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="7">
         <v>20220203</v>
       </c>
@@ -1601,17 +1786,17 @@
       <c r="C31" s="8">
         <v>1200</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>29</v>
+      <c r="D31" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F31" s="7">
         <v>20220201</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H31" s="7">
         <v>202202</v>
@@ -1623,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" ht="12.75" customHeight="1">
       <c r="A32">
         <v>20220203</v>
       </c>
@@ -1634,16 +1819,16 @@
         <v>1200</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F32">
         <v>20220201</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>202202</v>
@@ -1655,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="7">
         <v>20220203</v>
       </c>
@@ -1665,17 +1850,17 @@
       <c r="C33" s="8">
         <v>1300</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>29</v>
+      <c r="D33" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F33" s="7">
         <v>20220203</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33" s="7">
         <v>202202</v>
@@ -1687,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="7">
         <v>20220203</v>
       </c>
@@ -1697,17 +1882,17 @@
       <c r="C34" s="8">
         <v>1300</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>24</v>
+      <c r="D34" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F34" s="7">
         <v>20220203</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H34" s="7">
         <v>202202</v>
@@ -1719,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="7">
         <v>20220203</v>
       </c>
@@ -1730,16 +1915,16 @@
         <v>1500</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>24</v>
+        <v>53</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F35" s="7">
         <v>20220131</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>202202</v>
@@ -1751,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="7">
         <v>20220203</v>
       </c>
@@ -1762,16 +1947,16 @@
         <v>20</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F36" s="7">
         <v>20220201</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H36">
         <v>202202</v>
@@ -1783,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="7">
         <v>20220203</v>
       </c>
@@ -1794,16 +1979,16 @@
         <v>20</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F37" s="7">
         <v>20220203</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H37" s="7">
         <v>202202</v>
@@ -1815,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="7">
         <v>20220203</v>
       </c>
@@ -1826,16 +2011,16 @@
         <v>4</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="13">
+        <v>54</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="11">
         <v>20220201</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H38" s="7">
         <v>202202</v>
@@ -1847,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="7">
         <v>20220203</v>
       </c>
@@ -1858,16 +2043,16 @@
         <v>4</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>24</v>
+        <v>55</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F39" s="7">
         <v>20220201</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H39" s="7">
         <v>202202</v>
@@ -1879,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="7">
         <v>20220203</v>
       </c>
@@ -1890,16 +2075,16 @@
         <v>4</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="13">
+        <v>56</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="11">
         <v>20220201</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H40" s="7">
         <v>202202</v>
@@ -1911,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="7">
         <v>20220203</v>
       </c>
@@ -1922,16 +2107,16 @@
         <v>50</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F41" s="7">
         <v>20220203</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H41" s="7">
         <v>202202</v>
@@ -1943,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="7">
         <v>20220203</v>
       </c>
@@ -1954,16 +2139,16 @@
         <v>50</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="13">
+        <v>41</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="11">
         <v>20220203</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42" s="7">
         <v>202202</v>
@@ -1975,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="7">
         <v>20220203</v>
       </c>
@@ -1986,28 +2171,28 @@
         <v>500</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="13">
+        <v>45</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="11">
         <v>20220131</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H43" s="7">
-        <v>202201</v>
+        <v>202202</v>
       </c>
       <c r="I43" s="7">
-        <v>202201</v>
+        <v>202202</v>
       </c>
       <c r="J43" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="7">
         <v>20220203</v>
       </c>
@@ -2017,17 +2202,17 @@
       <c r="C44" s="8">
         <v>12</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>24</v>
+      <c r="D44" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F44" s="7">
         <v>20220202</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H44" s="7">
         <v>202202</v>
@@ -2039,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="7">
         <v>20220203</v>
       </c>
@@ -2049,17 +2234,17 @@
       <c r="C45" s="8">
         <v>12</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>24</v>
+      <c r="D45" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F45" s="7">
         <v>20220202</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H45" s="7">
         <v>202202</v>
@@ -2071,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="7">
         <v>20220203</v>
       </c>
@@ -2081,17 +2266,17 @@
       <c r="C46" s="8">
         <v>14</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>24</v>
+      <c r="D46" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F46" s="7">
         <v>20220202</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46" s="7">
         <v>202202</v>
@@ -2103,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="7">
         <v>20220203</v>
       </c>
@@ -2113,17 +2298,17 @@
       <c r="C47" s="8">
         <v>18</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>24</v>
+      <c r="D47" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F47" s="7">
         <v>20220202</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H47" s="7">
         <v>202202</v>
@@ -2135,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="7">
         <v>20220203</v>
       </c>
@@ -2145,17 +2330,17 @@
       <c r="C48" s="8">
         <v>18</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>24</v>
+      <c r="D48" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F48" s="7">
         <v>20220203</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H48" s="7">
         <v>202202</v>
@@ -2167,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="7">
         <v>20220203</v>
       </c>
@@ -2177,29 +2362,29 @@
       <c r="C49" s="8">
         <v>2000</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>29</v>
+      <c r="D49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="F49" s="7">
         <v>20220131</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H49" s="7">
-        <v>202201</v>
+        <v>202202</v>
       </c>
       <c r="I49" s="7">
-        <v>202201</v>
+        <v>202202</v>
       </c>
       <c r="J49" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="7">
         <v>20220203</v>
       </c>
@@ -2209,17 +2394,17 @@
       <c r="C50" s="8">
         <v>2000</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>24</v>
+      <c r="D50" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F50" s="7">
         <v>20220131</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H50" s="7">
         <v>202202</v>
@@ -2231,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="7">
         <v>20220203</v>
       </c>
@@ -2241,17 +2426,17 @@
       <c r="C51" s="8">
         <v>2100</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>29</v>
+      <c r="D51" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F51" s="7">
         <v>20220201</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H51" s="7">
         <v>202202</v>
@@ -2263,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="7">
         <v>20220203</v>
       </c>
@@ -2273,17 +2458,17 @@
       <c r="C52" s="8">
         <v>2100</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>24</v>
+      <c r="E52" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F52" s="7">
         <v>20220201</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H52" s="7">
         <v>202202</v>
@@ -2295,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" ht="12.75" customHeight="1">
       <c r="A53">
         <v>20220203</v>
       </c>
@@ -2306,16 +2491,16 @@
         <v>2200</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F53">
         <v>20220202</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>202202</v>
@@ -2327,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="7">
         <v>20220203</v>
       </c>
@@ -2337,17 +2522,17 @@
       <c r="C54" s="8">
         <v>2200</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>24</v>
+      <c r="D54" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F54" s="7">
         <v>20220202</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H54" s="7">
         <v>202202</v>
@@ -2359,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="7">
         <v>20220203</v>
       </c>
@@ -2369,17 +2554,17 @@
       <c r="C55" s="8">
         <v>2300</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>29</v>
+      <c r="D55" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F55" s="7">
         <v>20220203</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H55" s="7">
         <v>202202</v>
@@ -2391,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="7">
         <v>20220203</v>
       </c>
@@ -2402,16 +2587,16 @@
         <v>2300</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>24</v>
+        <v>52</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F56" s="7">
         <v>20220203</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>202202</v>
@@ -2423,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="7">
         <v>20220203</v>
       </c>
@@ -2434,16 +2619,16 @@
         <v>4</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F57" s="13">
+        <v>54</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="11">
         <v>20220202</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H57" s="7">
         <v>202202</v>
@@ -2455,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="7">
         <v>20220203</v>
       </c>
@@ -2466,16 +2651,16 @@
         <v>4</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>24</v>
+        <v>55</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F58" s="7">
         <v>20220202</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H58" s="7">
         <v>202202</v>
@@ -2487,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="7">
         <v>20220203</v>
       </c>
@@ -2498,16 +2683,16 @@
         <v>4</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="13">
+        <v>56</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="11">
         <v>20220202</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H59" s="7">
         <v>202202</v>
@@ -2519,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="7">
         <v>20220203</v>
       </c>
@@ -2529,17 +2714,17 @@
       <c r="C60" s="8">
         <v>40</v>
       </c>
-      <c r="D60" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>24</v>
+      <c r="D60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F60" s="7">
         <v>20220203</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H60" s="7">
         <v>202202</v>
@@ -2551,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="7">
         <v>20220203</v>
       </c>
@@ -2561,17 +2746,17 @@
       <c r="C61" s="8">
         <v>40</v>
       </c>
-      <c r="D61" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F61" s="13">
+      <c r="D61" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" s="11">
         <v>20220203</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H61" s="7">
         <v>202202</v>
@@ -2583,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="7">
         <v>20220203</v>
       </c>
@@ -2593,17 +2778,17 @@
       <c r="C62" s="8">
         <v>8</v>
       </c>
-      <c r="D62" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>24</v>
+      <c r="D62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F62" s="7">
         <v>20220202</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62" s="7">
         <v>202202</v>
@@ -2615,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="7">
         <v>20220203</v>
       </c>
@@ -2625,17 +2810,17 @@
       <c r="C63" s="8">
         <v>8</v>
       </c>
-      <c r="D63" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F63" s="13">
+      <c r="D63" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" s="11">
         <v>20220202</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H63" s="7">
         <v>202202</v>
@@ -2648,7 +2833,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J61">
+  <sortState ref="A3:J61">
     <sortCondition ref="A3:A61"/>
     <sortCondition ref="B3:B61"/>
     <sortCondition ref="C3:C61"/>
@@ -2656,8 +2841,9 @@
     <sortCondition ref="E3:E61"/>
     <sortCondition ref="F3:F61"/>
   </sortState>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
